--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_9_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>799896.1070965177</v>
+        <v>799101.2528198085</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736546</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.5096686531243404</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="F3" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.5096686531243404</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="W6" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11.94294668035388</v>
-      </c>
       <c r="X6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,17 +1066,17 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>163.5780608459771</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>199.2745317056441</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="X8" t="n">
-        <v>105.9398294159876</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>98.19966383583493</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>90.60440168823203</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>145.744306090293</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.82892338324687</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>199.2745317056441</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.6171072114576</v>
+        <v>297.6171072114571</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>276.6097282136673</v>
+        <v>276.6097282136668</v>
       </c>
       <c r="E11" t="n">
-        <v>159.4404943511207</v>
+        <v>298.3518657835724</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>317.5236818715496</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>319.0532420125676</v>
       </c>
       <c r="H11" t="n">
-        <v>232.8725926870047</v>
+        <v>232.8725926870043</v>
       </c>
       <c r="I11" t="n">
-        <v>63.03908661312553</v>
+        <v>63.03908661312524</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.67119820550032</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.8621291912568</v>
+        <v>127.8621291912564</v>
       </c>
       <c r="U11" t="n">
-        <v>159.8181893912521</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.1234844516367</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>266.4235839295936</v>
+        <v>266.4235839295932</v>
       </c>
       <c r="X11" t="n">
-        <v>285.7238421623402</v>
+        <v>285.7238421623398</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.120439958539</v>
+        <v>6.245016690360046</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.2252122844531</v>
       </c>
       <c r="H12" t="n">
-        <v>96.85234761177666</v>
+        <v>96.85234761177668</v>
       </c>
       <c r="I12" t="n">
-        <v>60.26152764944208</v>
+        <v>60.26152764944213</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.77531167670183</v>
+        <v>45.77531167670193</v>
       </c>
       <c r="S12" t="n">
         <v>147.2593368423134</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.23381808615461</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>75.4338129315551</v>
+        <v>75.43381293155468</v>
       </c>
       <c r="D13" t="n">
-        <v>59.05517732913349</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.00292718491293</v>
+        <v>58.00292718491252</v>
       </c>
       <c r="F13" t="n">
-        <v>58.46985151309924</v>
+        <v>58.46985151309883</v>
       </c>
       <c r="G13" t="n">
-        <v>74.5634648330599</v>
+        <v>74.56346483305948</v>
       </c>
       <c r="H13" t="n">
-        <v>63.68287245207686</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.82916486206849</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.39812866710204</v>
+        <v>0.1452643682850518</v>
       </c>
       <c r="S13" t="n">
-        <v>115.9307736729748</v>
+        <v>115.9307736729744</v>
       </c>
       <c r="T13" t="n">
-        <v>137.5874211169877</v>
+        <v>137.5874211169872</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8224626006977</v>
+        <v>191.8224626006973</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>165.6419544857798</v>
       </c>
       <c r="W13" t="n">
-        <v>52.39689801391627</v>
+        <v>190.8088405563931</v>
       </c>
       <c r="X13" t="n">
-        <v>136.4539425521966</v>
+        <v>136.4539425521962</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.3288103082643</v>
+        <v>127.3288103082639</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>297.6171072114574</v>
       </c>
       <c r="C14" t="n">
-        <v>285.6284241691392</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.6097282136671</v>
       </c>
       <c r="E14" t="n">
-        <v>298.3518657835727</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>317.5236818715499</v>
+        <v>317.5236818715498</v>
       </c>
       <c r="G14" t="n">
-        <v>319.0532420125679</v>
+        <v>127.6406546419099</v>
       </c>
       <c r="H14" t="n">
         <v>232.8725926870046</v>
       </c>
       <c r="I14" t="n">
-        <v>63.03908661312548</v>
+        <v>63.03908661312549</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.67119820550025</v>
+        <v>83.67119820550023</v>
       </c>
       <c r="T14" t="n">
-        <v>127.8621291912567</v>
+        <v>127.8621291912566</v>
       </c>
       <c r="U14" t="n">
         <v>159.818189391252</v>
       </c>
       <c r="V14" t="n">
-        <v>241.1234844516366</v>
+        <v>241.1234844516365</v>
       </c>
       <c r="W14" t="n">
-        <v>266.4235839295935</v>
+        <v>266.4235839295934</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>95.95439806029707</v>
+        <v>297.1204399585388</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.2252122844531</v>
       </c>
       <c r="H15" t="n">
-        <v>96.85234761177666</v>
+        <v>96.85234761177668</v>
       </c>
       <c r="I15" t="n">
-        <v>60.26152764944209</v>
+        <v>60.26152764944213</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.77531167670183</v>
+        <v>45.77531167670193</v>
       </c>
       <c r="S15" t="n">
         <v>147.2593368423134</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.23381808615446</v>
       </c>
       <c r="C16" t="n">
-        <v>75.43381293155502</v>
+        <v>75.43381293155494</v>
       </c>
       <c r="D16" t="n">
-        <v>59.05517732913341</v>
+        <v>59.05517732913333</v>
       </c>
       <c r="E16" t="n">
-        <v>58.00292718491286</v>
+        <v>58.00292718491278</v>
       </c>
       <c r="F16" t="n">
-        <v>58.46985151309917</v>
+        <v>58.46985151309909</v>
       </c>
       <c r="G16" t="n">
-        <v>74.56346483305981</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>63.68287245207672</v>
       </c>
       <c r="I16" t="n">
-        <v>44.82916486206841</v>
+        <v>44.82916486206837</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.58973248534117</v>
+        <v>47.39812866710194</v>
       </c>
       <c r="S16" t="n">
         <v>115.9307736729747</v>
       </c>
       <c r="T16" t="n">
-        <v>137.5874211169876</v>
+        <v>137.5874211169875</v>
       </c>
       <c r="U16" t="n">
-        <v>191.8224626006976</v>
+        <v>89.66084071376626</v>
       </c>
       <c r="V16" t="n">
-        <v>165.6419544857801</v>
+        <v>165.64195448578</v>
       </c>
       <c r="W16" t="n">
-        <v>190.8088405563934</v>
+        <v>190.8088405563933</v>
       </c>
       <c r="X16" t="n">
-        <v>136.4539425521965</v>
+        <v>136.4539425521964</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>234.5780205983319</v>
       </c>
       <c r="C17" t="n">
-        <v>107.0589172671899</v>
+        <v>222.5893375560136</v>
       </c>
       <c r="D17" t="n">
         <v>213.5706416005416</v>
       </c>
       <c r="E17" t="n">
-        <v>235.3127791704472</v>
+        <v>235.3127791704471</v>
       </c>
       <c r="F17" t="n">
         <v>254.4845952584243</v>
       </c>
       <c r="G17" t="n">
-        <v>256.0141553994424</v>
+        <v>256.0141553994423</v>
       </c>
       <c r="H17" t="n">
         <v>169.8335060738791</v>
@@ -1895,19 +1895,19 @@
         <v>20.63211159237471</v>
       </c>
       <c r="T17" t="n">
-        <v>64.82304257813118</v>
+        <v>64.82304257813112</v>
       </c>
       <c r="U17" t="n">
-        <v>96.77910277812651</v>
+        <v>96.77910277812646</v>
       </c>
       <c r="V17" t="n">
-        <v>178.0843978385111</v>
+        <v>178.084397838511</v>
       </c>
       <c r="W17" t="n">
-        <v>203.384497316468</v>
+        <v>203.3844973164679</v>
       </c>
       <c r="X17" t="n">
-        <v>222.6847555492146</v>
+        <v>107.1543352603875</v>
       </c>
       <c r="Y17" t="n">
         <v>234.0813533454133</v>
@@ -1938,10 +1938,10 @@
         <v>127.2252122844531</v>
       </c>
       <c r="H18" t="n">
-        <v>96.85234761177666</v>
+        <v>96.85234761177668</v>
       </c>
       <c r="I18" t="n">
-        <v>60.26152764944209</v>
+        <v>60.26152764944213</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.77531167670184</v>
+        <v>45.77531167670193</v>
       </c>
       <c r="S18" t="n">
         <v>147.2593368423134</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.19473147302901</v>
+        <v>26.19473147302895</v>
       </c>
       <c r="C19" t="n">
-        <v>12.39472631842949</v>
+        <v>12.39472631842943</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2230734539339392</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.52437821993429</v>
+        <v>11.52437821993423</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6437858389512574</v>
+        <v>0.6437858389512106</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.2230734539335945</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.89168705984921</v>
+        <v>52.89168705984918</v>
       </c>
       <c r="T19" t="n">
-        <v>74.54833450386204</v>
+        <v>74.54833450386199</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7833759875721</v>
+        <v>128.783375987572</v>
       </c>
       <c r="V19" t="n">
-        <v>102.6028678726546</v>
+        <v>102.6028678726545</v>
       </c>
       <c r="W19" t="n">
-        <v>127.7697539432679</v>
+        <v>127.7697539432678</v>
       </c>
       <c r="X19" t="n">
-        <v>73.41485593907097</v>
+        <v>73.41485593907092</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.28972369513866</v>
+        <v>64.2897236951386</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>234.5780205983319</v>
       </c>
       <c r="C20" t="n">
-        <v>222.5893375560137</v>
+        <v>222.5893375560136</v>
       </c>
       <c r="D20" t="n">
         <v>213.5706416005416</v>
       </c>
       <c r="E20" t="n">
-        <v>235.3127791704472</v>
+        <v>235.3127791704471</v>
       </c>
       <c r="F20" t="n">
         <v>254.4845952584243</v>
       </c>
       <c r="G20" t="n">
-        <v>256.0141553994424</v>
+        <v>256.0141553994423</v>
       </c>
       <c r="H20" t="n">
         <v>169.8335060738791</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>20.63211159237471</v>
+        <v>20.63211159237477</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>64.82304257813112</v>
       </c>
       <c r="U20" t="n">
-        <v>96.77910277812651</v>
+        <v>96.77910277812646</v>
       </c>
       <c r="V20" t="n">
-        <v>127.377020127818</v>
+        <v>62.55397754968317</v>
       </c>
       <c r="W20" t="n">
-        <v>203.384497316468</v>
+        <v>203.3844973164679</v>
       </c>
       <c r="X20" t="n">
-        <v>222.6847555492146</v>
+        <v>222.6847555492145</v>
       </c>
       <c r="Y20" t="n">
         <v>234.0813533454133</v>
@@ -2175,10 +2175,10 @@
         <v>127.2252122844531</v>
       </c>
       <c r="H21" t="n">
-        <v>96.85234761177666</v>
+        <v>96.85234761177668</v>
       </c>
       <c r="I21" t="n">
-        <v>60.26152764944209</v>
+        <v>60.26152764944216</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.77531167670183</v>
+        <v>45.77531167670197</v>
       </c>
       <c r="S21" t="n">
-        <v>147.2593368423134</v>
+        <v>147.2593368423135</v>
       </c>
       <c r="T21" t="n">
         <v>185.9276103640825</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.41780492696295</v>
+        <v>26.19473147302895</v>
       </c>
       <c r="C22" t="n">
-        <v>12.39472631842949</v>
+        <v>12.39472631842943</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.52437821993429</v>
+        <v>11.52437821993423</v>
       </c>
       <c r="H22" t="n">
-        <v>0.643785838951257</v>
+        <v>0.6437858389512165</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.2230734539330388</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.89168705984921</v>
+        <v>52.89168705984918</v>
       </c>
       <c r="T22" t="n">
-        <v>74.54833450386204</v>
+        <v>74.54833450386199</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7833759875721</v>
+        <v>128.783375987572</v>
       </c>
       <c r="V22" t="n">
-        <v>102.6028678726546</v>
+        <v>102.6028678726545</v>
       </c>
       <c r="W22" t="n">
-        <v>127.7697539432679</v>
+        <v>127.7697539432678</v>
       </c>
       <c r="X22" t="n">
-        <v>73.41485593907097</v>
+        <v>73.41485593907092</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.28972369513866</v>
+        <v>64.2897236951386</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>234.5780205983319</v>
       </c>
       <c r="C23" t="n">
-        <v>222.5893375560137</v>
+        <v>222.5893375560136</v>
       </c>
       <c r="D23" t="n">
         <v>213.5706416005416</v>
       </c>
       <c r="E23" t="n">
-        <v>235.3127791704472</v>
+        <v>235.3127791704471</v>
       </c>
       <c r="F23" t="n">
         <v>254.4845952584243</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.36239918351198</v>
+        <v>18.36239918351192</v>
       </c>
       <c r="T23" t="n">
-        <v>64.38702870781646</v>
+        <v>64.3870287078164</v>
       </c>
       <c r="U23" t="n">
-        <v>96.77113450636747</v>
+        <v>96.77113450636742</v>
       </c>
       <c r="V23" t="n">
-        <v>178.0843978385111</v>
+        <v>178.084397838511</v>
       </c>
       <c r="W23" t="n">
-        <v>203.384497316468</v>
+        <v>203.3844973164679</v>
       </c>
       <c r="X23" t="n">
-        <v>222.6847555492146</v>
+        <v>222.6847555492145</v>
       </c>
       <c r="Y23" t="n">
         <v>234.0813533454133</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.19473147302901</v>
+        <v>26.19473147302895</v>
       </c>
       <c r="C25" t="n">
-        <v>12.39472631842949</v>
+        <v>12.39472631842943</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.4796995650149</v>
+        <v>11.47969956501484</v>
       </c>
       <c r="H25" t="n">
-        <v>38.53217017016642</v>
+        <v>0.246551979758836</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.11305995548135</v>
+        <v>52.1130599554813</v>
       </c>
       <c r="T25" t="n">
-        <v>74.35743479647921</v>
+        <v>112.6430529868873</v>
       </c>
       <c r="U25" t="n">
-        <v>128.780938970031</v>
+        <v>128.7809389700309</v>
       </c>
       <c r="V25" t="n">
-        <v>102.6028678726546</v>
+        <v>102.6028678726545</v>
       </c>
       <c r="W25" t="n">
-        <v>127.7697539432679</v>
+        <v>127.7697539432678</v>
       </c>
       <c r="X25" t="n">
-        <v>73.41485593907097</v>
+        <v>73.41485593907092</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.28972369513866</v>
+        <v>64.2897236951386</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2561,10 @@
         <v>265.8770292406624</v>
       </c>
       <c r="E26" t="n">
-        <v>287.6191668105679</v>
+        <v>287.619166810568</v>
       </c>
       <c r="F26" t="n">
-        <v>306.7909828985451</v>
+        <v>306.7909828985452</v>
       </c>
       <c r="G26" t="n">
         <v>308.2209396425752</v>
@@ -2573,7 +2573,7 @@
         <v>221.1198304245971</v>
       </c>
       <c r="I26" t="n">
-        <v>48.46642767774304</v>
+        <v>48.4664276777431</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.66878682363273</v>
+        <v>70.66878682363279</v>
       </c>
       <c r="T26" t="n">
         <v>116.6934163479372</v>
       </c>
       <c r="U26" t="n">
-        <v>149.0775221464882</v>
+        <v>149.0775221464883</v>
       </c>
       <c r="V26" t="n">
         <v>230.3907854786318</v>
       </c>
       <c r="W26" t="n">
-        <v>255.6908849565887</v>
+        <v>255.6908849565876</v>
       </c>
       <c r="X26" t="n">
-        <v>274.9911431893353</v>
+        <v>274.9911431893354</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.3877409855341</v>
+        <v>286.3877409855342</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.33765410525163</v>
       </c>
       <c r="I27" t="n">
-        <v>58.42667568476384</v>
+        <v>58.42667568476386</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.4665009235827</v>
+        <v>42.46650092358273</v>
       </c>
       <c r="S27" t="n">
         <v>146.2694517378023</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.50111911314977</v>
+        <v>78.5011191131498</v>
       </c>
       <c r="C28" t="n">
-        <v>64.70111395855025</v>
+        <v>64.70111395855028</v>
       </c>
       <c r="D28" t="n">
-        <v>48.32247835612864</v>
+        <v>48.32247835612867</v>
       </c>
       <c r="E28" t="n">
-        <v>47.27022821190809</v>
+        <v>47.27022821190812</v>
       </c>
       <c r="F28" t="n">
-        <v>47.7371525400944</v>
+        <v>47.73715254009443</v>
       </c>
       <c r="G28" t="n">
-        <v>63.78608720513566</v>
+        <v>63.78608720513569</v>
       </c>
       <c r="H28" t="n">
-        <v>52.55293961987965</v>
+        <v>52.55293961987969</v>
       </c>
       <c r="I28" t="n">
-        <v>32.75285688476064</v>
+        <v>32.75285688476068</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.6565149010855</v>
+        <v>34.65651490108555</v>
       </c>
       <c r="S28" t="n">
-        <v>104.4194475956021</v>
+        <v>104.4194475956022</v>
       </c>
       <c r="T28" t="n">
         <v>126.6638224366</v>
@@ -2776,10 +2776,10 @@
         <v>180.0761415833886</v>
       </c>
       <c r="X28" t="n">
-        <v>125.7212435791917</v>
+        <v>125.7212435791918</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.5961113352594</v>
+        <v>116.5961113352595</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.5780205983319</v>
+        <v>234.578020598332</v>
       </c>
       <c r="C35" t="n">
         <v>222.5893375560137</v>
       </c>
       <c r="D35" t="n">
-        <v>213.5706416005416</v>
+        <v>213.5706416005417</v>
       </c>
       <c r="E35" t="n">
         <v>235.3127791704472</v>
       </c>
       <c r="F35" t="n">
-        <v>254.4845952584243</v>
+        <v>254.4845952584244</v>
       </c>
       <c r="G35" t="n">
         <v>255.9145520024544</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.36239918351198</v>
+        <v>18.362399183512</v>
       </c>
       <c r="T35" t="n">
-        <v>64.38702870781646</v>
+        <v>64.38702870781648</v>
       </c>
       <c r="U35" t="n">
-        <v>96.77113450636747</v>
+        <v>96.7711345063675</v>
       </c>
       <c r="V35" t="n">
         <v>178.0843978385111</v>
@@ -3332,7 +3332,7 @@
         <v>222.6847555492146</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.0813533454133</v>
+        <v>234.0813533454134</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.19473147302901</v>
+        <v>26.19473147302904</v>
       </c>
       <c r="C37" t="n">
-        <v>12.39472631842949</v>
+        <v>12.39472631842952</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>38.28561819040759</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>11.4796995650149</v>
+        <v>11.47969956501493</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2465519797588929</v>
+        <v>0.2465519797589213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.11305995548135</v>
+        <v>52.11305995548138</v>
       </c>
       <c r="T37" t="n">
-        <v>74.35743479647921</v>
+        <v>74.35743479647924</v>
       </c>
       <c r="U37" t="n">
         <v>128.780938970031</v>
@@ -3484,13 +3484,13 @@
         <v>102.6028678726546</v>
       </c>
       <c r="W37" t="n">
-        <v>127.7697539432679</v>
+        <v>166.0553721336751</v>
       </c>
       <c r="X37" t="n">
-        <v>73.41485593907097</v>
+        <v>73.414855939071</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.28972369513866</v>
+        <v>64.28972369513869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.5780205983319</v>
+        <v>234.578020598332</v>
       </c>
       <c r="C38" t="n">
         <v>222.5893375560137</v>
       </c>
       <c r="D38" t="n">
-        <v>213.5706416005416</v>
+        <v>213.5706416005417</v>
       </c>
       <c r="E38" t="n">
         <v>235.3127791704472</v>
       </c>
       <c r="F38" t="n">
-        <v>254.4845952584243</v>
+        <v>254.4845952584244</v>
       </c>
       <c r="G38" t="n">
         <v>255.9145520024544</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.36239918351198</v>
+        <v>18.362399183512</v>
       </c>
       <c r="T38" t="n">
-        <v>64.38702870781646</v>
+        <v>64.38702870781648</v>
       </c>
       <c r="U38" t="n">
-        <v>96.77113450636747</v>
+        <v>96.7711345063675</v>
       </c>
       <c r="V38" t="n">
         <v>178.0843978385111</v>
@@ -3569,7 +3569,7 @@
         <v>222.6847555492146</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.0813533454133</v>
+        <v>234.0813533454134</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.48034966343661</v>
+        <v>26.19473147302904</v>
       </c>
       <c r="C40" t="n">
-        <v>12.39472631842949</v>
+        <v>12.39472631842952</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.03864631792182</v>
       </c>
       <c r="G40" t="n">
-        <v>11.4796995650149</v>
+        <v>11.47969956501493</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2465519797588929</v>
+        <v>0.2465519797589213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>19.24697187248549</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.11305995548135</v>
+        <v>52.11305995548138</v>
       </c>
       <c r="T40" t="n">
-        <v>74.35743479647921</v>
+        <v>74.35743479647924</v>
       </c>
       <c r="U40" t="n">
         <v>128.780938970031</v>
@@ -3724,10 +3724,10 @@
         <v>127.7697539432679</v>
       </c>
       <c r="X40" t="n">
-        <v>73.41485593907097</v>
+        <v>73.414855939071</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.28972369513866</v>
+        <v>64.28972369513869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>234.5780205983319</v>
       </c>
       <c r="C41" t="n">
-        <v>222.5893375560136</v>
+        <v>222.5893375560137</v>
       </c>
       <c r="D41" t="n">
         <v>213.5706416005416</v>
       </c>
       <c r="E41" t="n">
-        <v>235.3127791704471</v>
+        <v>235.3127791704472</v>
       </c>
       <c r="F41" t="n">
         <v>254.4845952584243</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.36239918351192</v>
+        <v>18.36239918351198</v>
       </c>
       <c r="T41" t="n">
-        <v>64.3870287078164</v>
+        <v>64.38702870781646</v>
       </c>
       <c r="U41" t="n">
-        <v>96.77113450636742</v>
+        <v>96.77113450636747</v>
       </c>
       <c r="V41" t="n">
-        <v>178.084397838511</v>
+        <v>178.0843978385111</v>
       </c>
       <c r="W41" t="n">
-        <v>203.3844973164679</v>
+        <v>203.384497316468</v>
       </c>
       <c r="X41" t="n">
-        <v>222.6847555492145</v>
+        <v>222.6847555492146</v>
       </c>
       <c r="Y41" t="n">
         <v>234.0813533454133</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.48034966343725</v>
+        <v>26.19473147302901</v>
       </c>
       <c r="C43" t="n">
-        <v>12.39472631842943</v>
+        <v>12.39472631842949</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.47969956501484</v>
+        <v>11.4796995650149</v>
       </c>
       <c r="H43" t="n">
-        <v>0.246551979758836</v>
+        <v>0.2465519797588929</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>19.24697187248549</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>52.1130599554813</v>
+        <v>52.11305995548135</v>
       </c>
       <c r="T43" t="n">
-        <v>74.35743479647915</v>
+        <v>74.35743479647921</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7809389700309</v>
+        <v>128.780938970031</v>
       </c>
       <c r="V43" t="n">
-        <v>102.6028678726545</v>
+        <v>121.6415141905766</v>
       </c>
       <c r="W43" t="n">
-        <v>127.7697539432678</v>
+        <v>127.7697539432679</v>
       </c>
       <c r="X43" t="n">
-        <v>73.41485593907092</v>
+        <v>73.41485593907097</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.2897236951386</v>
+        <v>64.28972369513866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234.5780205983319</v>
+        <v>234.5780205983317</v>
       </c>
       <c r="C44" t="n">
-        <v>222.5893375560137</v>
+        <v>222.5893375560134</v>
       </c>
       <c r="D44" t="n">
-        <v>213.5706416005416</v>
+        <v>213.5706416005414</v>
       </c>
       <c r="E44" t="n">
-        <v>235.3127791704472</v>
+        <v>235.3127791704469</v>
       </c>
       <c r="F44" t="n">
-        <v>254.4845952584243</v>
+        <v>254.4845952584241</v>
       </c>
       <c r="G44" t="n">
-        <v>255.9145520024544</v>
+        <v>255.9145520024541</v>
       </c>
       <c r="H44" t="n">
-        <v>168.8134427844763</v>
+        <v>168.8134427844761</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.051798896398395e-12</v>
       </c>
       <c r="S44" t="n">
-        <v>18.36239918351197</v>
+        <v>18.36239918351172</v>
       </c>
       <c r="T44" t="n">
-        <v>64.38702870781646</v>
+        <v>64.3870287078162</v>
       </c>
       <c r="U44" t="n">
-        <v>96.77113450636747</v>
+        <v>96.77113450636722</v>
       </c>
       <c r="V44" t="n">
-        <v>178.0843978385111</v>
+        <v>178.0843978385108</v>
       </c>
       <c r="W44" t="n">
-        <v>203.384497316468</v>
+        <v>203.3844973164677</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6847555492146</v>
+        <v>222.6847555492143</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.0813533454133</v>
+        <v>234.0813533454131</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.19473147302901</v>
+        <v>26.19473147302875</v>
       </c>
       <c r="C46" t="n">
-        <v>12.39472631842949</v>
+        <v>50.68034450883965</v>
       </c>
       <c r="D46" t="n">
-        <v>38.28561819040752</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.4796995650149</v>
+        <v>11.47969956501464</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2465519797588929</v>
+        <v>0.2465519797586371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>52.11305995548135</v>
+        <v>52.1130599554811</v>
       </c>
       <c r="T46" t="n">
-        <v>74.35743479647921</v>
+        <v>74.35743479647896</v>
       </c>
       <c r="U46" t="n">
-        <v>128.780938970031</v>
+        <v>128.7809389700307</v>
       </c>
       <c r="V46" t="n">
-        <v>102.6028678726546</v>
+        <v>102.6028678726543</v>
       </c>
       <c r="W46" t="n">
-        <v>127.7697539432679</v>
+        <v>127.7697539432676</v>
       </c>
       <c r="X46" t="n">
-        <v>73.41485593907097</v>
+        <v>73.41485593907072</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.28972369513866</v>
+        <v>64.28972369513841</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C2" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D2" t="n">
         <v>23.12980488926189</v>
@@ -4331,49 +4331,49 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K2" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L2" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M2" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N2" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="O2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P2" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R2" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="S2" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="S2" t="n">
-        <v>35.19338739466986</v>
-      </c>
       <c r="T2" t="n">
-        <v>35.19338739466986</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V2" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W2" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X2" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C3" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D3" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E3" t="n">
-        <v>13.01901823983628</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F3" t="n">
         <v>13.01901823983628</v>
@@ -4416,16 +4416,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="M3" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N3" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O3" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P3" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
@@ -4446,13 +4446,13 @@
         <v>35.70820421600757</v>
       </c>
       <c r="W3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D4" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E4" t="n">
-        <v>13.01901823983628</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="J4" t="n">
         <v>0.9554357344283108</v>
@@ -4498,10 +4498,10 @@
         <v>24.60247016152901</v>
       </c>
       <c r="N4" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O4" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4513,25 +4513,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S4" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T4" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U4" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V4" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W4" t="n">
-        <v>37.14618325065221</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4565,31 +4565,31 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K5" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L5" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M5" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N5" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="O5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S5" t="n">
         <v>35.70820421600757</v>
@@ -4601,16 +4601,16 @@
         <v>35.70820421600757</v>
       </c>
       <c r="V5" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="W5" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="X5" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="Y5" t="n">
         <v>23.64462171059961</v>
-      </c>
-      <c r="W5" t="n">
-        <v>23.64462171059961</v>
-      </c>
-      <c r="X5" t="n">
-        <v>23.12980488926189</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G6" t="n">
         <v>0.9554357344283108</v>
@@ -4647,22 +4647,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K6" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L6" t="n">
         <v>12.77895294797866</v>
-      </c>
-      <c r="L6" t="n">
-        <v>24.60247016152901</v>
       </c>
       <c r="M6" t="n">
         <v>24.60247016152901</v>
       </c>
       <c r="N6" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O6" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P6" t="n">
-        <v>36.42598737507935</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
@@ -4674,22 +4674,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T6" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="U6" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="U6" t="n">
-        <v>25.08260074524424</v>
-      </c>
       <c r="V6" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W6" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="7">
@@ -4714,28 +4714,28 @@
         <v>13.01901823983628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M7" t="n">
         <v>24.60247016152901</v>
       </c>
       <c r="N7" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O7" t="n">
         <v>36.42598737507935</v>
@@ -4744,16 +4744,16 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="R7" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="S7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U7" t="n">
         <v>23.64462171059961</v>
@@ -4762,10 +4762,10 @@
         <v>23.64462171059961</v>
       </c>
       <c r="W7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X7" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y7" t="n">
         <v>13.01901823983628</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.9335304824891</v>
+        <v>394.523315296022</v>
       </c>
       <c r="C8" t="n">
-        <v>210.9335304824891</v>
+        <v>394.523315296022</v>
       </c>
       <c r="D8" t="n">
-        <v>210.9335304824891</v>
+        <v>394.523315296022</v>
       </c>
       <c r="E8" t="n">
-        <v>210.9335304824891</v>
+        <v>193.2359095327455</v>
       </c>
       <c r="F8" t="n">
-        <v>200.8227438330635</v>
+        <v>28.00554504185947</v>
       </c>
       <c r="G8" t="n">
-        <v>188.7591613276555</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="H8" t="n">
-        <v>188.7591613276555</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="I8" t="n">
-        <v>15.94196253645153</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="J8" t="n">
-        <v>87.94050680925719</v>
+        <v>87.94050680925716</v>
       </c>
       <c r="K8" t="n">
-        <v>285.2222931978449</v>
+        <v>285.2222931978445</v>
       </c>
       <c r="L8" t="n">
-        <v>308.1023003588641</v>
+        <v>402.5345540454005</v>
       </c>
       <c r="M8" t="n">
-        <v>308.1023003588641</v>
+        <v>402.5345540454005</v>
       </c>
       <c r="N8" t="n">
-        <v>505.3840867474518</v>
+        <v>599.8163404339878</v>
       </c>
       <c r="O8" t="n">
-        <v>702.6658731360394</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="P8" t="n">
-        <v>702.6658731360394</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="Q8" t="n">
-        <v>797.0981268225764</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="R8" t="n">
-        <v>706.4598403184298</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="S8" t="n">
-        <v>519.2308649487837</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="T8" t="n">
-        <v>519.2308649487837</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="U8" t="n">
-        <v>519.2308649487837</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="V8" t="n">
-        <v>317.9434591855069</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="W8" t="n">
-        <v>317.9434591855069</v>
+        <v>595.8107210592985</v>
       </c>
       <c r="X8" t="n">
-        <v>210.9335304824891</v>
+        <v>595.8107210592985</v>
       </c>
       <c r="Y8" t="n">
-        <v>210.9335304824891</v>
+        <v>595.8107210592985</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.1573576908943</v>
+        <v>306.3741352722122</v>
       </c>
       <c r="C9" t="n">
-        <v>283.453684931849</v>
+        <v>144.6704625131669</v>
       </c>
       <c r="D9" t="n">
-        <v>184.2621052996925</v>
+        <v>144.6704625131669</v>
       </c>
       <c r="E9" t="n">
-        <v>184.2621052996925</v>
+        <v>144.6704625131669</v>
       </c>
       <c r="F9" t="n">
-        <v>184.2621052996925</v>
+        <v>144.6704625131669</v>
       </c>
       <c r="G9" t="n">
-        <v>184.2621052996925</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="H9" t="n">
-        <v>84.32424784639053</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="I9" t="n">
-        <v>15.94196253645153</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="J9" t="n">
-        <v>15.94196253645153</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="K9" t="n">
-        <v>15.94196253645153</v>
+        <v>213.2237489250388</v>
       </c>
       <c r="L9" t="n">
-        <v>213.2237489250392</v>
+        <v>213.2237489250388</v>
       </c>
       <c r="M9" t="n">
-        <v>213.2237489250392</v>
+        <v>244.7629242598062</v>
       </c>
       <c r="N9" t="n">
-        <v>410.5055353136269</v>
+        <v>442.0447106483936</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0447106483946</v>
+        <v>639.3264970369809</v>
       </c>
       <c r="P9" t="n">
-        <v>639.3264970369822</v>
+        <v>639.3264970369809</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.0981268225764</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="R9" t="n">
-        <v>797.0981268225764</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="S9" t="n">
-        <v>797.0981268225764</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="T9" t="n">
-        <v>797.0981268225764</v>
+        <v>797.0981268225751</v>
       </c>
       <c r="U9" t="n">
-        <v>797.0981268225764</v>
+        <v>705.5785291576942</v>
       </c>
       <c r="V9" t="n">
-        <v>797.0981268225764</v>
+        <v>504.2911233944177</v>
       </c>
       <c r="W9" t="n">
-        <v>797.0981268225764</v>
+        <v>504.2911233944177</v>
       </c>
       <c r="X9" t="n">
-        <v>797.0981268225764</v>
+        <v>306.3741352722122</v>
       </c>
       <c r="Y9" t="n">
-        <v>604.5768004721552</v>
+        <v>306.3741352722122</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="C10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="D10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="E10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="F10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="G10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="H10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="I10" t="n">
-        <v>15.94196253645153</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="J10" t="n">
-        <v>15.94196253645153</v>
+        <v>15.9419625364515</v>
       </c>
       <c r="K10" t="n">
-        <v>49.54615028109494</v>
+        <v>49.54615028109491</v>
       </c>
       <c r="L10" t="n">
         <v>150.1532296813544</v>
       </c>
       <c r="M10" t="n">
-        <v>268.1467358089562</v>
+        <v>268.1467358089561</v>
       </c>
       <c r="N10" t="n">
-        <v>386.5690775585566</v>
+        <v>386.5690775585565</v>
       </c>
       <c r="O10" t="n">
         <v>485.0327240542462</v>
@@ -4981,31 +4981,31 @@
         <v>548.001207782384</v>
       </c>
       <c r="Q10" t="n">
-        <v>548.001207782384</v>
+        <v>509.463866436073</v>
       </c>
       <c r="R10" t="n">
-        <v>548.001207782384</v>
+        <v>359.9420850504512</v>
       </c>
       <c r="S10" t="n">
-        <v>400.7847369841082</v>
+        <v>158.6546792871746</v>
       </c>
       <c r="T10" t="n">
-        <v>400.7847369841082</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="U10" t="n">
-        <v>400.7847369841082</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="V10" t="n">
-        <v>400.7847369841082</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="W10" t="n">
-        <v>199.4973312208314</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="X10" t="n">
-        <v>199.4973312208314</v>
+        <v>75.99920112227878</v>
       </c>
       <c r="Y10" t="n">
-        <v>199.4973312208314</v>
+        <v>75.99920112227878</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>790.7123287517527</v>
+        <v>1574.033839172527</v>
       </c>
       <c r="C11" t="n">
-        <v>790.7123287517527</v>
+        <v>1574.033839172527</v>
       </c>
       <c r="D11" t="n">
-        <v>511.3085628793607</v>
+        <v>1294.630073300136</v>
       </c>
       <c r="E11" t="n">
-        <v>350.2575584842893</v>
+        <v>993.264552306629</v>
       </c>
       <c r="F11" t="n">
-        <v>350.2575584842893</v>
+        <v>672.5335605171849</v>
       </c>
       <c r="G11" t="n">
-        <v>350.2575584842893</v>
+        <v>350.2575584842886</v>
       </c>
       <c r="H11" t="n">
-        <v>115.0327173863048</v>
+        <v>115.0327173863045</v>
       </c>
       <c r="I11" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J11" t="n">
-        <v>157.2769658735834</v>
+        <v>157.2769658735833</v>
       </c>
       <c r="K11" t="n">
-        <v>448.2569470319193</v>
+        <v>448.2569470319188</v>
       </c>
       <c r="L11" t="n">
-        <v>859.2133507679828</v>
+        <v>859.2133507679819</v>
       </c>
       <c r="M11" t="n">
-        <v>1322.631191107017</v>
+        <v>1322.631191107016</v>
       </c>
       <c r="N11" t="n">
-        <v>1772.276788196934</v>
+        <v>1772.276788196933</v>
       </c>
       <c r="O11" t="n">
-        <v>2144.62138575925</v>
+        <v>2144.621385759248</v>
       </c>
       <c r="P11" t="n">
-        <v>2430.251425420911</v>
+        <v>2430.251425420909</v>
       </c>
       <c r="Q11" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="R11" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="S11" t="n">
-        <v>2483.327254303344</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="T11" t="n">
-        <v>2354.17358845359</v>
+        <v>2438.689950277325</v>
       </c>
       <c r="U11" t="n">
-        <v>2192.741073916972</v>
+        <v>2438.689950277325</v>
       </c>
       <c r="V11" t="n">
-        <v>1949.181998713298</v>
+        <v>2438.689950277325</v>
       </c>
       <c r="W11" t="n">
-        <v>1680.067267471285</v>
+        <v>2169.575219035312</v>
       </c>
       <c r="X11" t="n">
-        <v>1391.457325893163</v>
+        <v>1880.965277457191</v>
       </c>
       <c r="Y11" t="n">
-        <v>1091.335669369387</v>
+        <v>1874.657179790161</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>112.227102271473</v>
       </c>
       <c r="I12" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J12" t="n">
-        <v>131.8144612198884</v>
+        <v>131.8144612198882</v>
       </c>
       <c r="K12" t="n">
-        <v>395.8359147375185</v>
+        <v>395.8359147375181</v>
       </c>
       <c r="L12" t="n">
-        <v>808.0888176227695</v>
+        <v>808.0888176227687</v>
       </c>
       <c r="M12" t="n">
-        <v>1347.30502547505</v>
+        <v>1003.711968867983</v>
       </c>
       <c r="N12" t="n">
-        <v>1914.187584868544</v>
+        <v>1570.594528261478</v>
       </c>
       <c r="O12" t="n">
-        <v>2013.673089042051</v>
+        <v>2013.673089042052</v>
       </c>
       <c r="P12" t="n">
         <v>2356.60357837737</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.7783582881034</v>
+        <v>320.5185455171126</v>
       </c>
       <c r="C13" t="n">
-        <v>413.5825876501688</v>
+        <v>244.3227748791788</v>
       </c>
       <c r="D13" t="n">
-        <v>353.9308933783168</v>
+        <v>244.3227748791788</v>
       </c>
       <c r="E13" t="n">
-        <v>295.3420780400209</v>
+        <v>185.7339595408833</v>
       </c>
       <c r="F13" t="n">
-        <v>236.2816219661834</v>
+        <v>126.6735034670461</v>
       </c>
       <c r="G13" t="n">
-        <v>160.9649908216784</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="H13" t="n">
-        <v>96.63885703170173</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="I13" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J13" t="n">
-        <v>96.73090019813341</v>
+        <v>96.73090019813367</v>
       </c>
       <c r="K13" t="n">
-        <v>242.7251278325988</v>
+        <v>242.7251278325994</v>
       </c>
       <c r="L13" t="n">
-        <v>461.5471688077004</v>
+        <v>461.5471688077014</v>
       </c>
       <c r="M13" t="n">
-        <v>699.2045328106433</v>
+        <v>699.2045328106444</v>
       </c>
       <c r="N13" t="n">
-        <v>936.6225125444662</v>
+        <v>936.6225125444676</v>
       </c>
       <c r="O13" t="n">
-        <v>1151.987498097335</v>
+        <v>1151.987498097337</v>
       </c>
       <c r="P13" t="n">
-        <v>1328.200039332237</v>
+        <v>1328.200039332239</v>
       </c>
       <c r="Q13" t="n">
-        <v>1397.002858306582</v>
+        <v>1397.002858306584</v>
       </c>
       <c r="R13" t="n">
-        <v>1349.125960663045</v>
+        <v>1396.856126621448</v>
       </c>
       <c r="S13" t="n">
-        <v>1232.024169074181</v>
+        <v>1279.754335032585</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.046976026719</v>
+        <v>1140.777141985123</v>
       </c>
       <c r="U13" t="n">
-        <v>899.286912793691</v>
+        <v>947.0170787520954</v>
       </c>
       <c r="V13" t="n">
-        <v>899.286912793691</v>
+        <v>779.7019732109036</v>
       </c>
       <c r="W13" t="n">
-        <v>846.3607531836745</v>
+        <v>586.9657706286883</v>
       </c>
       <c r="X13" t="n">
-        <v>708.5284879794356</v>
+        <v>449.1335054244498</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.913528072098</v>
+        <v>320.5185455171126</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1583.143633066945</v>
+        <v>1079.322270329872</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.630073300138</v>
+        <v>1079.322270329872</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.630073300138</v>
+        <v>799.9185044574808</v>
       </c>
       <c r="E14" t="n">
-        <v>993.2645523066303</v>
+        <v>799.9185044574808</v>
       </c>
       <c r="F14" t="n">
-        <v>672.5335605171861</v>
+        <v>479.1875126680366</v>
       </c>
       <c r="G14" t="n">
-        <v>350.2575584842892</v>
+        <v>350.2575584842891</v>
       </c>
       <c r="H14" t="n">
-        <v>115.0327173863048</v>
+        <v>115.0327173863047</v>
       </c>
       <c r="I14" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J14" t="n">
-        <v>157.2769658735833</v>
+        <v>157.2769658735832</v>
       </c>
       <c r="K14" t="n">
-        <v>448.2569470319193</v>
+        <v>448.2569470319188</v>
       </c>
       <c r="L14" t="n">
-        <v>859.2133507679825</v>
+        <v>859.2133507679821</v>
       </c>
       <c r="M14" t="n">
-        <v>1322.631191107017</v>
+        <v>1322.631191107016</v>
       </c>
       <c r="N14" t="n">
-        <v>1772.276788196934</v>
+        <v>1772.276788196933</v>
       </c>
       <c r="O14" t="n">
-        <v>2144.62138575925</v>
+        <v>2144.621385759248</v>
       </c>
       <c r="P14" t="n">
-        <v>2430.251425420911</v>
+        <v>2430.251425420909</v>
       </c>
       <c r="Q14" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="R14" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="S14" t="n">
-        <v>2483.327254303344</v>
+        <v>2483.327254303342</v>
       </c>
       <c r="T14" t="n">
-        <v>2354.17358845359</v>
+        <v>2354.173588453587</v>
       </c>
       <c r="U14" t="n">
-        <v>2192.741073916972</v>
+        <v>2192.741073916969</v>
       </c>
       <c r="V14" t="n">
-        <v>1949.181998713299</v>
+        <v>1949.181998713296</v>
       </c>
       <c r="W14" t="n">
-        <v>1680.067267471286</v>
+        <v>1680.067267471282</v>
       </c>
       <c r="X14" t="n">
-        <v>1680.067267471286</v>
+        <v>1680.067267471282</v>
       </c>
       <c r="Y14" t="n">
-        <v>1583.143633066945</v>
+        <v>1379.945610947505</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>112.227102271473</v>
       </c>
       <c r="I15" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J15" t="n">
-        <v>131.8144612198884</v>
+        <v>131.1518939481415</v>
       </c>
       <c r="K15" t="n">
-        <v>131.8144612198884</v>
+        <v>395.1733474657714</v>
       </c>
       <c r="L15" t="n">
-        <v>544.0673641051394</v>
+        <v>807.4262503510221</v>
       </c>
       <c r="M15" t="n">
-        <v>1083.28357195742</v>
+        <v>1346.642458203302</v>
       </c>
       <c r="N15" t="n">
-        <v>1650.166131350914</v>
+        <v>1913.525017596796</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.244692131489</v>
+        <v>2356.60357837737</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.175181466807</v>
+        <v>2356.60357837737</v>
       </c>
       <c r="Q15" t="n">
         <v>2541.67203684171</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>425.4522244981273</v>
+        <v>414.4617271435974</v>
       </c>
       <c r="C16" t="n">
-        <v>349.2564538601929</v>
+        <v>338.2659565056631</v>
       </c>
       <c r="D16" t="n">
-        <v>289.604759588341</v>
+        <v>278.6142622338112</v>
       </c>
       <c r="E16" t="n">
-        <v>231.0159442500452</v>
+        <v>220.0254468955155</v>
       </c>
       <c r="F16" t="n">
-        <v>171.9554881762076</v>
+        <v>160.964990821678</v>
       </c>
       <c r="G16" t="n">
-        <v>96.63885703170169</v>
+        <v>160.964990821678</v>
       </c>
       <c r="H16" t="n">
-        <v>96.63885703170169</v>
+        <v>96.63885703170156</v>
       </c>
       <c r="I16" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J16" t="n">
-        <v>96.73090019813344</v>
+        <v>96.73090019813341</v>
       </c>
       <c r="K16" t="n">
-        <v>242.7251278325989</v>
+        <v>242.7251278325988</v>
       </c>
       <c r="L16" t="n">
-        <v>461.5471688077007</v>
+        <v>461.5471688077006</v>
       </c>
       <c r="M16" t="n">
-        <v>699.2045328106437</v>
+        <v>699.2045328106433</v>
       </c>
       <c r="N16" t="n">
-        <v>936.6225125444665</v>
+        <v>936.6225125444662</v>
       </c>
       <c r="O16" t="n">
         <v>1151.987498097336</v>
       </c>
       <c r="P16" t="n">
-        <v>1328.200039332238</v>
+        <v>1328.200039332237</v>
       </c>
       <c r="Q16" t="n">
-        <v>1397.002858306583</v>
+        <v>1397.002858306582</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.174845695127</v>
+        <v>1349.125960663045</v>
       </c>
       <c r="S16" t="n">
-        <v>1256.073054106264</v>
+        <v>1232.024169074181</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.095861058802</v>
+        <v>1093.046976026719</v>
       </c>
       <c r="U16" t="n">
-        <v>923.3357978257736</v>
+        <v>1002.480470255238</v>
       </c>
       <c r="V16" t="n">
-        <v>756.0206922845816</v>
+        <v>835.1653647140463</v>
       </c>
       <c r="W16" t="n">
-        <v>563.2844897023662</v>
+        <v>642.4291621318308</v>
       </c>
       <c r="X16" t="n">
-        <v>425.4522244981273</v>
+        <v>504.5968969275918</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.4522244981273</v>
+        <v>504.5968969275918</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1300.119089261858</v>
+        <v>1416.816483492994</v>
       </c>
       <c r="C17" t="n">
-        <v>1191.978768789949</v>
+        <v>1191.97876878995</v>
       </c>
       <c r="D17" t="n">
-        <v>976.2508479813212</v>
+        <v>976.2508479813223</v>
       </c>
       <c r="E17" t="n">
-        <v>738.5611720515765</v>
+        <v>738.5611720515776</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5060253258953</v>
+        <v>481.5060253258965</v>
       </c>
       <c r="G17" t="n">
-        <v>222.9058683567629</v>
+        <v>222.9058683567628</v>
       </c>
       <c r="H17" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="I17" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J17" t="n">
-        <v>157.2769658735838</v>
+        <v>157.2769658735832</v>
       </c>
       <c r="K17" t="n">
-        <v>448.2569470319195</v>
+        <v>448.2569470319187</v>
       </c>
       <c r="L17" t="n">
-        <v>859.2133507679828</v>
+        <v>859.2133507679816</v>
       </c>
       <c r="M17" t="n">
-        <v>1322.631191107017</v>
+        <v>1322.631191107016</v>
       </c>
       <c r="N17" t="n">
-        <v>1772.276788196935</v>
+        <v>1772.276788196933</v>
       </c>
       <c r="O17" t="n">
-        <v>2144.621385759251</v>
+        <v>2144.621385759248</v>
       </c>
       <c r="P17" t="n">
-        <v>2430.251425420911</v>
+        <v>2430.251425420909</v>
       </c>
       <c r="Q17" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="R17" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127079</v>
       </c>
       <c r="S17" t="n">
-        <v>2547.003099367108</v>
+        <v>2547.003099367104</v>
       </c>
       <c r="T17" t="n">
-        <v>2481.525278581116</v>
+        <v>2481.525278581113</v>
       </c>
       <c r="U17" t="n">
-        <v>2383.768609108261</v>
+        <v>2383.768609108258</v>
       </c>
       <c r="V17" t="n">
-        <v>2203.885378968351</v>
+        <v>2203.885378968348</v>
       </c>
       <c r="W17" t="n">
-        <v>1998.4464927901</v>
+        <v>1998.446492790098</v>
       </c>
       <c r="X17" t="n">
-        <v>1773.512396275742</v>
+        <v>1890.209790506878</v>
       </c>
       <c r="Y17" t="n">
-        <v>1537.066584815729</v>
+        <v>1653.763979046865</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>112.227102271473</v>
       </c>
       <c r="I18" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="J18" t="n">
-        <v>131.8144612198884</v>
+        <v>131.8144612198882</v>
       </c>
       <c r="K18" t="n">
-        <v>395.8359147375184</v>
+        <v>395.8359147375181</v>
       </c>
       <c r="L18" t="n">
-        <v>808.0888176227693</v>
+        <v>807.4262503510221</v>
       </c>
       <c r="M18" t="n">
-        <v>1347.305025475049</v>
+        <v>1346.642458203302</v>
       </c>
       <c r="N18" t="n">
-        <v>1914.187584868544</v>
+        <v>1913.525017596796</v>
       </c>
       <c r="O18" t="n">
         <v>2356.60357837737</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.39319942481333</v>
+        <v>76.39319942481276</v>
       </c>
       <c r="C19" t="n">
-        <v>63.87327385064213</v>
+        <v>63.87327385064162</v>
       </c>
       <c r="D19" t="n">
-        <v>63.87327385064213</v>
+        <v>63.87327385064162</v>
       </c>
       <c r="E19" t="n">
-        <v>63.87327385064213</v>
+        <v>63.87327385064162</v>
       </c>
       <c r="F19" t="n">
-        <v>63.64794712949674</v>
+        <v>63.87327385064162</v>
       </c>
       <c r="G19" t="n">
-        <v>52.00716104875503</v>
+        <v>52.23248776989997</v>
       </c>
       <c r="H19" t="n">
-        <v>51.35687232254164</v>
+        <v>51.58219904368662</v>
       </c>
       <c r="I19" t="n">
-        <v>51.35687232254164</v>
+        <v>51.58219904368662</v>
       </c>
       <c r="J19" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254158</v>
       </c>
       <c r="K19" t="n">
-        <v>105.7899630147394</v>
+        <v>105.7899630147392</v>
       </c>
       <c r="L19" t="n">
-        <v>233.0508670475736</v>
+        <v>233.0508670475733</v>
       </c>
       <c r="M19" t="n">
-        <v>379.147094108249</v>
+        <v>379.1470941082484</v>
       </c>
       <c r="N19" t="n">
-        <v>525.0039368998042</v>
+        <v>525.0039368998034</v>
       </c>
       <c r="O19" t="n">
-        <v>648.8077855104059</v>
+        <v>648.807785510405</v>
       </c>
       <c r="P19" t="n">
-        <v>733.4591898030401</v>
+        <v>733.459189803039</v>
       </c>
       <c r="Q19" t="n">
-        <v>733.4591898030401</v>
+        <v>733.459189803039</v>
       </c>
       <c r="R19" t="n">
-        <v>733.4591898030401</v>
+        <v>733.459189803039</v>
       </c>
       <c r="S19" t="n">
-        <v>680.0332432779398</v>
+        <v>680.0332432779388</v>
       </c>
       <c r="T19" t="n">
-        <v>604.7318952942408</v>
+        <v>604.7318952942398</v>
       </c>
       <c r="U19" t="n">
-        <v>474.647677124976</v>
+        <v>474.6476771249752</v>
       </c>
       <c r="V19" t="n">
-        <v>371.0084166475472</v>
+        <v>371.0084166475464</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9480591290948</v>
+        <v>241.948059129094</v>
       </c>
       <c r="X19" t="n">
-        <v>167.7916389886191</v>
+        <v>167.7916389886184</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.8525241450447</v>
+        <v>102.852524145044</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1416.816483492995</v>
+        <v>1416.816483492994</v>
       </c>
       <c r="C20" t="n">
         <v>1191.97876878995</v>
       </c>
       <c r="D20" t="n">
-        <v>976.2508479813225</v>
+        <v>976.2508479813222</v>
       </c>
       <c r="E20" t="n">
-        <v>738.5611720515778</v>
+        <v>738.5611720515776</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5060253258966</v>
+        <v>481.5060253258965</v>
       </c>
       <c r="G20" t="n">
         <v>222.9058683567629</v>
       </c>
       <c r="H20" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="I20" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="J20" t="n">
-        <v>157.2769658735833</v>
+        <v>157.276965873583</v>
       </c>
       <c r="K20" t="n">
-        <v>448.2569470319193</v>
+        <v>448.2569470319183</v>
       </c>
       <c r="L20" t="n">
-        <v>859.2133507679827</v>
+        <v>859.2133507679812</v>
       </c>
       <c r="M20" t="n">
-        <v>1322.631191107017</v>
+        <v>1322.631191107015</v>
       </c>
       <c r="N20" t="n">
-        <v>1772.276788196935</v>
+        <v>1772.276788196931</v>
       </c>
       <c r="O20" t="n">
-        <v>2144.62138575925</v>
+        <v>2144.621385759247</v>
       </c>
       <c r="P20" t="n">
-        <v>2430.251425420911</v>
+        <v>2430.251425420907</v>
       </c>
       <c r="Q20" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127077</v>
       </c>
       <c r="R20" t="n">
-        <v>2567.843616127082</v>
+        <v>2567.843616127077</v>
       </c>
       <c r="S20" t="n">
-        <v>2547.003099367108</v>
+        <v>2547.003099367103</v>
       </c>
       <c r="T20" t="n">
-        <v>2547.003099367108</v>
+        <v>2481.525278581112</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.246429894252</v>
+        <v>2383.768609108257</v>
       </c>
       <c r="V20" t="n">
         <v>2320.582773199487</v>
       </c>
       <c r="W20" t="n">
-        <v>2115.143887021237</v>
+        <v>2115.143887021236</v>
       </c>
       <c r="X20" t="n">
-        <v>1890.209790506879</v>
+        <v>1890.209790506878</v>
       </c>
       <c r="Y20" t="n">
         <v>1653.763979046865</v>
@@ -5826,28 +5826,28 @@
         <v>112.227102271473</v>
       </c>
       <c r="I21" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="J21" t="n">
-        <v>131.8144612198884</v>
+        <v>131.8144612198881</v>
       </c>
       <c r="K21" t="n">
-        <v>395.8359147375185</v>
+        <v>395.8359147375178</v>
       </c>
       <c r="L21" t="n">
-        <v>808.0888176227695</v>
+        <v>464.4957610157045</v>
       </c>
       <c r="M21" t="n">
-        <v>1347.30502547505</v>
+        <v>1003.711968867984</v>
       </c>
       <c r="N21" t="n">
-        <v>1755.662986725817</v>
+        <v>1570.594528261478</v>
       </c>
       <c r="O21" t="n">
-        <v>2198.741547506391</v>
+        <v>2013.673089042052</v>
       </c>
       <c r="P21" t="n">
-        <v>2541.67203684171</v>
+        <v>2356.60357837737</v>
       </c>
       <c r="Q21" t="n">
         <v>2541.67203684171</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.16787270366794</v>
+        <v>76.16787270366768</v>
       </c>
       <c r="C22" t="n">
-        <v>63.64794712949674</v>
+        <v>63.64794712949654</v>
       </c>
       <c r="D22" t="n">
-        <v>63.64794712949674</v>
+        <v>63.64794712949654</v>
       </c>
       <c r="E22" t="n">
-        <v>63.64794712949674</v>
+        <v>63.64794712949654</v>
       </c>
       <c r="F22" t="n">
-        <v>63.64794712949674</v>
+        <v>63.64794712949654</v>
       </c>
       <c r="G22" t="n">
-        <v>52.00716104875503</v>
+        <v>52.00716104875489</v>
       </c>
       <c r="H22" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="I22" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="J22" t="n">
-        <v>51.35687232254164</v>
+        <v>51.35687232254154</v>
       </c>
       <c r="K22" t="n">
-        <v>105.7899630147394</v>
+        <v>105.7899630147391</v>
       </c>
       <c r="L22" t="n">
-        <v>233.0508670475736</v>
+        <v>233.0508670475731</v>
       </c>
       <c r="M22" t="n">
-        <v>379.147094108249</v>
+        <v>379.1470941082481</v>
       </c>
       <c r="N22" t="n">
-        <v>525.0039368998042</v>
+        <v>525.0039368998031</v>
       </c>
       <c r="O22" t="n">
-        <v>648.8077855104059</v>
+        <v>648.8077855104045</v>
       </c>
       <c r="P22" t="n">
-        <v>733.4591898030401</v>
+        <v>733.4591898030385</v>
       </c>
       <c r="Q22" t="n">
-        <v>733.4591898030401</v>
+        <v>733.233863081894</v>
       </c>
       <c r="R22" t="n">
-        <v>733.4591898030401</v>
+        <v>733.233863081894</v>
       </c>
       <c r="S22" t="n">
-        <v>680.0332432779398</v>
+        <v>679.8079165567938</v>
       </c>
       <c r="T22" t="n">
-        <v>604.7318952942408</v>
+        <v>604.5065685730948</v>
       </c>
       <c r="U22" t="n">
-        <v>474.647677124976</v>
+        <v>474.4223504038301</v>
       </c>
       <c r="V22" t="n">
-        <v>371.0084166475472</v>
+        <v>370.7830899264013</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9480591290948</v>
+        <v>241.722732407949</v>
       </c>
       <c r="X22" t="n">
-        <v>167.7916389886191</v>
+        <v>167.5663122674733</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8525241450447</v>
+        <v>102.6271974238989</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1417.988064433384</v>
+        <v>1417.988064433385</v>
       </c>
       <c r="C23" t="n">
-        <v>1193.15034973034</v>
+        <v>1193.150349730341</v>
       </c>
       <c r="D23" t="n">
-        <v>977.4224289217123</v>
+        <v>977.4224289217127</v>
       </c>
       <c r="E23" t="n">
         <v>739.7327529919678</v>
@@ -5987,13 +5987,13 @@
         <v>53.65942971383204</v>
       </c>
       <c r="J23" t="n">
-        <v>167.9486999418282</v>
+        <v>167.9486999418277</v>
       </c>
       <c r="K23" t="n">
-        <v>471.4719074536731</v>
+        <v>471.4719074536727</v>
       </c>
       <c r="L23" t="n">
-        <v>897.9892926292092</v>
+        <v>897.989292629209</v>
       </c>
       <c r="M23" t="n">
         <v>1378.721723099789</v>
@@ -6002,7 +6002,7 @@
         <v>1845.962078491427</v>
       </c>
       <c r="O23" t="n">
-        <v>2234.920907389453</v>
+        <v>2234.920907389452</v>
       </c>
       <c r="P23" t="n">
         <v>2534.730809112315</v>
@@ -6014,25 +6014,25 @@
         <v>2682.971485691602</v>
       </c>
       <c r="S23" t="n">
-        <v>2664.423607728459</v>
+        <v>2664.423607728458</v>
       </c>
       <c r="T23" t="n">
         <v>2599.38620499329</v>
       </c>
       <c r="U23" t="n">
-        <v>2501.637584279788</v>
+        <v>2501.637584279787</v>
       </c>
       <c r="V23" t="n">
         <v>2321.754354139877</v>
       </c>
       <c r="W23" t="n">
-        <v>2116.315467961626</v>
+        <v>2116.315467961627</v>
       </c>
       <c r="X23" t="n">
-        <v>1891.381371447268</v>
+        <v>1891.381371447269</v>
       </c>
       <c r="Y23" t="n">
-        <v>1654.935559987254</v>
+        <v>1654.935559987255</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>139.1016429053727</v>
       </c>
       <c r="K24" t="n">
-        <v>139.1016429053727</v>
+        <v>411.6426132810567</v>
       </c>
       <c r="L24" t="n">
-        <v>403.3562757662091</v>
+        <v>595.1594496782172</v>
       </c>
       <c r="M24" t="n">
-        <v>955.9405605636443</v>
+        <v>1147.743734475652</v>
       </c>
       <c r="N24" t="n">
-        <v>1536.545010121078</v>
+        <v>1728.348184033086</v>
       </c>
       <c r="O24" t="n">
-        <v>1992.176419612814</v>
+        <v>2183.979593524823</v>
       </c>
       <c r="P24" t="n">
-        <v>2345.181676717532</v>
+        <v>2536.98485062954</v>
       </c>
       <c r="Q24" t="n">
         <v>2536.98485062954</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.69639542455</v>
+        <v>78.02405381807762</v>
       </c>
       <c r="C25" t="n">
-        <v>104.1764698503788</v>
+        <v>65.50412824390646</v>
       </c>
       <c r="D25" t="n">
-        <v>104.1764698503788</v>
+        <v>65.50412824390646</v>
       </c>
       <c r="E25" t="n">
-        <v>104.1764698503788</v>
+        <v>65.50412824390646</v>
       </c>
       <c r="F25" t="n">
-        <v>104.1764698503788</v>
+        <v>65.50412824390646</v>
       </c>
       <c r="G25" t="n">
-        <v>92.58081372410115</v>
+        <v>53.90847211762885</v>
       </c>
       <c r="H25" t="n">
         <v>53.65942971383204</v>
@@ -6175,22 +6175,22 @@
         <v>720.1411496565413</v>
       </c>
       <c r="T25" t="n">
-        <v>645.0326296600977</v>
+        <v>606.3602880536248</v>
       </c>
       <c r="U25" t="n">
-        <v>514.9508731247128</v>
+        <v>476.27853151824</v>
       </c>
       <c r="V25" t="n">
-        <v>411.3116126472839</v>
+        <v>372.6392710408112</v>
       </c>
       <c r="W25" t="n">
-        <v>282.2512551288315</v>
+        <v>243.5789135223589</v>
       </c>
       <c r="X25" t="n">
-        <v>208.0948349883558</v>
+        <v>169.4224933818832</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.1557201447814</v>
+        <v>104.4833785383089</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1800.047202282166</v>
+        <v>1800.047202282165</v>
       </c>
       <c r="C26" t="n">
-        <v>1522.374752589101</v>
+        <v>1522.3747525891</v>
       </c>
       <c r="D26" t="n">
         <v>1253.812096790452</v>
       </c>
       <c r="E26" t="n">
-        <v>963.2876858706868</v>
+        <v>963.2876858706859</v>
       </c>
       <c r="F26" t="n">
-        <v>653.3978041549847</v>
+        <v>653.3978041549838</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0635216877363</v>
+        <v>342.0635216877365</v>
       </c>
       <c r="H26" t="n">
-        <v>118.7101576224868</v>
+        <v>118.7101576224869</v>
       </c>
       <c r="I26" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J26" t="n">
-        <v>286.2299492227496</v>
+        <v>286.2299492227494</v>
       </c>
       <c r="K26" t="n">
-        <v>691.9396656601369</v>
+        <v>691.9396656601366</v>
       </c>
       <c r="L26" t="n">
-        <v>1220.643559761216</v>
+        <v>1220.643559761215</v>
       </c>
       <c r="M26" t="n">
-        <v>1803.562499157338</v>
+        <v>1803.562499157337</v>
       </c>
       <c r="N26" t="n">
-        <v>2372.989363474519</v>
+        <v>2372.989363474518</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.633024937592</v>
+        <v>2864.134701298085</v>
       </c>
       <c r="P26" t="n">
-        <v>3192.629435585997</v>
+        <v>3266.13111194649</v>
       </c>
       <c r="Q26" t="n">
-        <v>3443.056621090827</v>
+        <v>3443.056621090826</v>
       </c>
       <c r="R26" t="n">
-        <v>3487.708503460551</v>
+        <v>3487.70850346055</v>
       </c>
       <c r="S26" t="n">
-        <v>3416.325890507387</v>
+        <v>3416.325890507385</v>
       </c>
       <c r="T26" t="n">
-        <v>3298.453752782198</v>
+        <v>3298.453752782196</v>
       </c>
       <c r="U26" t="n">
-        <v>3147.870397078674</v>
+        <v>3147.870397078673</v>
       </c>
       <c r="V26" t="n">
-        <v>2915.152431948743</v>
+        <v>2915.152431948741</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.878810780472</v>
+        <v>2656.878810780471</v>
       </c>
       <c r="X26" t="n">
         <v>2379.109979276092</v>
       </c>
       <c r="Y26" t="n">
-        <v>2089.829432826058</v>
+        <v>2089.829432826057</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>128.7710141952351</v>
       </c>
       <c r="I27" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J27" t="n">
-        <v>146.9100457459032</v>
+        <v>155.1963832607516</v>
       </c>
       <c r="K27" t="n">
-        <v>419.4510161215873</v>
+        <v>427.7373536364356</v>
       </c>
       <c r="L27" t="n">
-        <v>419.4510161215873</v>
+        <v>611.2541900335958</v>
       </c>
       <c r="M27" t="n">
-        <v>972.0353009190225</v>
+        <v>1163.838474831031</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.639750476456</v>
+        <v>1744.442924388464</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.271159968193</v>
+        <v>2200.074333880201</v>
       </c>
       <c r="P27" t="n">
-        <v>2361.27641707291</v>
+        <v>2553.079590984918</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.079590984918</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.4843284292696</v>
+        <v>430.4843284292686</v>
       </c>
       <c r="C28" t="n">
-        <v>365.1296678650774</v>
+        <v>365.1296678650764</v>
       </c>
       <c r="D28" t="n">
-        <v>316.3190836669677</v>
+        <v>316.3190836669666</v>
       </c>
       <c r="E28" t="n">
-        <v>268.571378402414</v>
+        <v>268.571378402413</v>
       </c>
       <c r="F28" t="n">
-        <v>220.3520324023187</v>
+        <v>220.3520324023176</v>
       </c>
       <c r="G28" t="n">
-        <v>155.92164128602</v>
+        <v>155.9216412860189</v>
       </c>
       <c r="H28" t="n">
         <v>102.8378638922016</v>
       </c>
       <c r="I28" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J28" t="n">
-        <v>128.8807630218504</v>
+        <v>128.8807630218501</v>
       </c>
       <c r="K28" t="n">
-        <v>290.6393015284184</v>
+        <v>290.6393015284181</v>
       </c>
       <c r="L28" t="n">
-        <v>526.6627869897599</v>
+        <v>526.6627869897594</v>
       </c>
       <c r="M28" t="n">
-        <v>781.8790693969524</v>
+        <v>781.879069396952</v>
       </c>
       <c r="N28" t="n">
         <v>1036.691103298372</v>
       </c>
       <c r="O28" t="n">
-        <v>1268.933434374696</v>
+        <v>1268.933434374695</v>
       </c>
       <c r="P28" t="n">
-        <v>1461.1209910183</v>
+        <v>1461.120991018299</v>
       </c>
       <c r="Q28" t="n">
-        <v>1544.252997790082</v>
+        <v>1544.252997790081</v>
       </c>
       <c r="R28" t="n">
-        <v>1509.246417081915</v>
+        <v>1509.246417081914</v>
       </c>
       <c r="S28" t="n">
-        <v>1403.772227591408</v>
+        <v>1403.772227591407</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.828972604943</v>
+        <v>1275.828972604942</v>
       </c>
       <c r="U28" t="n">
-        <v>1092.912481079537</v>
+        <v>1092.912481079536</v>
       </c>
       <c r="V28" t="n">
-        <v>936.4384856120873</v>
+        <v>936.4384856120864</v>
       </c>
       <c r="W28" t="n">
-        <v>754.543393103614</v>
+        <v>754.5433931036131</v>
       </c>
       <c r="X28" t="n">
-        <v>627.5522379731173</v>
+        <v>627.5522379731163</v>
       </c>
       <c r="Y28" t="n">
-        <v>509.7783881395219</v>
+        <v>509.7783881395209</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.047202282166</v>
+        <v>1800.047202282164</v>
       </c>
       <c r="C29" t="n">
-        <v>1522.374752589101</v>
+        <v>1522.374752589099</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.812096790452</v>
+        <v>1253.812096790451</v>
       </c>
       <c r="E29" t="n">
-        <v>963.2876858706866</v>
+        <v>963.287685870685</v>
       </c>
       <c r="F29" t="n">
-        <v>653.3978041549844</v>
+        <v>653.3978041549835</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0635216877369</v>
+        <v>342.0635216877359</v>
       </c>
       <c r="H29" t="n">
         <v>118.7101576224868</v>
       </c>
       <c r="I29" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J29" t="n">
-        <v>212.7282728622561</v>
+        <v>257.3801552319785</v>
       </c>
       <c r="K29" t="n">
-        <v>618.4379892996433</v>
+        <v>663.0898716693657</v>
       </c>
       <c r="L29" t="n">
-        <v>1147.141883400722</v>
+        <v>1191.793765770444</v>
       </c>
       <c r="M29" t="n">
-        <v>1730.060822796844</v>
+        <v>1774.712705166567</v>
       </c>
       <c r="N29" t="n">
-        <v>2299.487687114025</v>
+        <v>2344.139569483747</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.633024937592</v>
+        <v>2835.284907307315</v>
       </c>
       <c r="P29" t="n">
-        <v>3192.629435585997</v>
+        <v>3237.28131795572</v>
       </c>
       <c r="Q29" t="n">
-        <v>3443.056621090827</v>
+        <v>3487.70850346055</v>
       </c>
       <c r="R29" t="n">
-        <v>3487.708503460551</v>
+        <v>3487.70850346055</v>
       </c>
       <c r="S29" t="n">
-        <v>3416.325890507387</v>
+        <v>3416.325890507385</v>
       </c>
       <c r="T29" t="n">
-        <v>3298.453752782198</v>
+        <v>3298.453752782196</v>
       </c>
       <c r="U29" t="n">
-        <v>3147.870397078674</v>
+        <v>3147.870397078672</v>
       </c>
       <c r="V29" t="n">
-        <v>2915.152431948743</v>
+        <v>2915.152431948741</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.878810780471</v>
+        <v>2656.87881078047</v>
       </c>
       <c r="X29" t="n">
-        <v>2379.109979276092</v>
+        <v>2379.109979276091</v>
       </c>
       <c r="Y29" t="n">
-        <v>2089.829432826057</v>
+        <v>2089.829432826056</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>128.7710141952351</v>
       </c>
       <c r="I30" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J30" t="n">
-        <v>155.1963832607517</v>
+        <v>69.754170069211</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7373536364357</v>
+        <v>342.295140444895</v>
       </c>
       <c r="L30" t="n">
-        <v>851.4457983110219</v>
+        <v>766.0035851194813</v>
       </c>
       <c r="M30" t="n">
-        <v>1404.030083108457</v>
+        <v>1318.587869916917</v>
       </c>
       <c r="N30" t="n">
-        <v>1984.634532665891</v>
+        <v>1899.19231947435</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.265942157627</v>
+        <v>2008.271159968193</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.265942157627</v>
+        <v>2361.27641707291</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.079590984918</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.4843284292695</v>
+        <v>430.4843284292691</v>
       </c>
       <c r="C31" t="n">
-        <v>365.1296678650773</v>
+        <v>365.1296678650769</v>
       </c>
       <c r="D31" t="n">
-        <v>316.3190836669675</v>
+        <v>316.3190836669671</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5713784024139</v>
+        <v>268.5713784024135</v>
       </c>
       <c r="F31" t="n">
-        <v>220.3520324023185</v>
+        <v>220.3520324023181</v>
       </c>
       <c r="G31" t="n">
-        <v>155.9216412860198</v>
+        <v>155.9216412860194</v>
       </c>
       <c r="H31" t="n">
         <v>102.8378638922016</v>
       </c>
       <c r="I31" t="n">
-        <v>69.75417006921103</v>
+        <v>69.754170069211</v>
       </c>
       <c r="J31" t="n">
         <v>128.8807630218501</v>
       </c>
       <c r="K31" t="n">
-        <v>290.6393015284182</v>
+        <v>290.6393015284181</v>
       </c>
       <c r="L31" t="n">
         <v>526.6627869897595</v>
       </c>
       <c r="M31" t="n">
-        <v>781.879069396952</v>
+        <v>781.8790693969519</v>
       </c>
       <c r="N31" t="n">
         <v>1036.691103298372</v>
       </c>
       <c r="O31" t="n">
-        <v>1268.933434374696</v>
+        <v>1268.933434374695</v>
       </c>
       <c r="P31" t="n">
         <v>1461.1209910183</v>
@@ -6655,16 +6655,16 @@
         <v>1092.912481079537</v>
       </c>
       <c r="V31" t="n">
-        <v>936.4384856120874</v>
+        <v>936.4384856120873</v>
       </c>
       <c r="W31" t="n">
-        <v>754.5433931036141</v>
+        <v>754.543393103614</v>
       </c>
       <c r="X31" t="n">
-        <v>627.5522379731171</v>
+        <v>627.5522379731168</v>
       </c>
       <c r="Y31" t="n">
-        <v>509.7783881395218</v>
+        <v>509.7783881395214</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>752.4772088555601</v>
       </c>
       <c r="F32" t="n">
-        <v>491.5433146931337</v>
+        <v>491.5433146931336</v>
       </c>
       <c r="G32" t="n">
         <v>229.1650197791616</v>
@@ -6704,16 +6704,16 @@
         <v>472.5801210070288</v>
       </c>
       <c r="L32" t="n">
-        <v>899.0975061825652</v>
+        <v>953.3999702969969</v>
       </c>
       <c r="M32" t="n">
-        <v>1379.829936653145</v>
+        <v>1434.132400767577</v>
       </c>
       <c r="N32" t="n">
-        <v>1847.070292044783</v>
+        <v>1901.372756159215</v>
       </c>
       <c r="O32" t="n">
-        <v>2236.029120942809</v>
+        <v>2290.33158505724</v>
       </c>
       <c r="P32" t="n">
         <v>2590.141486780103</v>
@@ -6777,25 +6777,25 @@
         <v>54.76764326718781</v>
       </c>
       <c r="J33" t="n">
-        <v>140.2098564587285</v>
+        <v>54.76764326718781</v>
       </c>
       <c r="K33" t="n">
-        <v>412.7508268344125</v>
+        <v>54.76764326718781</v>
       </c>
       <c r="L33" t="n">
-        <v>836.4592715089988</v>
+        <v>478.4760879417741</v>
       </c>
       <c r="M33" t="n">
-        <v>1389.043556306434</v>
+        <v>1031.060372739209</v>
       </c>
       <c r="N33" t="n">
-        <v>1969.648005863868</v>
+        <v>1611.664822296643</v>
       </c>
       <c r="O33" t="n">
-        <v>2425.279415355604</v>
+        <v>2067.296231788379</v>
       </c>
       <c r="P33" t="n">
-        <v>2538.093064182895</v>
+        <v>2420.301488893097</v>
       </c>
       <c r="Q33" t="n">
         <v>2538.093064182895</v>
@@ -6871,10 +6871,10 @@
         <v>553.8319478415401</v>
       </c>
       <c r="O34" t="n">
-        <v>687.881650190046</v>
+        <v>683.8877699923214</v>
       </c>
       <c r="P34" t="n">
-        <v>777.8826979081078</v>
+        <v>773.8888177103833</v>
       </c>
       <c r="Q34" t="n">
         <v>777.8826979081078</v>
@@ -6917,22 +6917,22 @@
         <v>1193.150349730341</v>
       </c>
       <c r="D35" t="n">
-        <v>977.4224289217132</v>
+        <v>977.4224289217129</v>
       </c>
       <c r="E35" t="n">
-        <v>739.7327529919684</v>
+        <v>739.732752991968</v>
       </c>
       <c r="F35" t="n">
-        <v>482.6776062662873</v>
+        <v>482.6776062662871</v>
       </c>
       <c r="G35" t="n">
         <v>224.1780587890607</v>
       </c>
       <c r="H35" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="I35" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J35" t="n">
         <v>167.9486999418282</v>
@@ -6941,13 +6941,13 @@
         <v>471.4719074536731</v>
       </c>
       <c r="L35" t="n">
-        <v>897.9892926292096</v>
+        <v>897.9892926292094</v>
       </c>
       <c r="M35" t="n">
         <v>1378.721723099789</v>
       </c>
       <c r="N35" t="n">
-        <v>1845.962078491428</v>
+        <v>1845.962078491427</v>
       </c>
       <c r="O35" t="n">
         <v>2234.920907389453</v>
@@ -6956,13 +6956,13 @@
         <v>2534.730809112315</v>
       </c>
       <c r="Q35" t="n">
-        <v>2682.971485691604</v>
+        <v>2682.971485691603</v>
       </c>
       <c r="R35" t="n">
-        <v>2682.971485691604</v>
+        <v>2682.971485691603</v>
       </c>
       <c r="S35" t="n">
-        <v>2664.42360772846</v>
+        <v>2664.423607728459</v>
       </c>
       <c r="T35" t="n">
         <v>2599.386204993291</v>
@@ -6974,7 +6974,7 @@
         <v>2321.754354139878</v>
       </c>
       <c r="W35" t="n">
-        <v>2116.315467961628</v>
+        <v>2116.315467961627</v>
       </c>
       <c r="X35" t="n">
         <v>1891.381371447269</v>
@@ -6999,10 +6999,10 @@
         <v>620.1653281705276</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1373182273989</v>
+        <v>473.1373182273987</v>
       </c>
       <c r="F36" t="n">
-        <v>338.4435201772732</v>
+        <v>338.4435201772731</v>
       </c>
       <c r="G36" t="n">
         <v>209.9870355623326</v>
@@ -7011,19 +7011,19 @@
         <v>112.6762738398562</v>
       </c>
       <c r="I36" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J36" t="n">
-        <v>139.1016429053728</v>
+        <v>139.1016429053727</v>
       </c>
       <c r="K36" t="n">
-        <v>411.6426132810568</v>
+        <v>411.6426132810567</v>
       </c>
       <c r="L36" t="n">
         <v>835.351057955643</v>
       </c>
       <c r="M36" t="n">
-        <v>955.9405605636443</v>
+        <v>1387.935342753078</v>
       </c>
       <c r="N36" t="n">
         <v>1536.545010121078</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6963954245501</v>
+        <v>78.02405381807787</v>
       </c>
       <c r="C37" t="n">
-        <v>104.1764698503789</v>
+        <v>65.50412824390665</v>
       </c>
       <c r="D37" t="n">
-        <v>104.1764698503789</v>
+        <v>65.50412824390665</v>
       </c>
       <c r="E37" t="n">
-        <v>104.1764698503789</v>
+        <v>65.50412824390665</v>
       </c>
       <c r="F37" t="n">
-        <v>65.50412824390662</v>
+        <v>65.50412824390665</v>
       </c>
       <c r="G37" t="n">
         <v>53.90847211762895</v>
       </c>
       <c r="H37" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="I37" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J37" t="n">
-        <v>53.65942971383208</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="K37" t="n">
         <v>113.2314592948577</v>
       </c>
       <c r="L37" t="n">
-        <v>247.0684358306568</v>
+        <v>247.0684358306567</v>
       </c>
       <c r="M37" t="n">
         <v>400.0982093123069</v>
@@ -7120,25 +7120,25 @@
         <v>772.7806041570276</v>
       </c>
       <c r="S37" t="n">
-        <v>720.1411496565414</v>
+        <v>720.1411496565413</v>
       </c>
       <c r="T37" t="n">
-        <v>645.0326296600978</v>
+        <v>645.0326296600977</v>
       </c>
       <c r="U37" t="n">
-        <v>514.9508731247129</v>
+        <v>514.9508731247128</v>
       </c>
       <c r="V37" t="n">
-        <v>411.311612647284</v>
+        <v>411.3116126472838</v>
       </c>
       <c r="W37" t="n">
-        <v>282.2512551288316</v>
+        <v>243.5789135223594</v>
       </c>
       <c r="X37" t="n">
-        <v>208.0948349883559</v>
+        <v>169.4224933818837</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.1557201447815</v>
+        <v>104.4833785383092</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1417.988064433386</v>
+        <v>1417.988064433385</v>
       </c>
       <c r="C38" t="n">
-        <v>1193.150349730342</v>
+        <v>1193.150349730341</v>
       </c>
       <c r="D38" t="n">
-        <v>977.4224289217143</v>
+        <v>977.4224289217134</v>
       </c>
       <c r="E38" t="n">
-        <v>739.7327529919696</v>
+        <v>739.7327529919687</v>
       </c>
       <c r="F38" t="n">
-        <v>482.6776062662884</v>
+        <v>482.6776062662875</v>
       </c>
       <c r="G38" t="n">
         <v>224.1780587890607</v>
       </c>
       <c r="H38" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="I38" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J38" t="n">
-        <v>167.9486999418286</v>
+        <v>167.9486999418282</v>
       </c>
       <c r="K38" t="n">
-        <v>471.4719074536735</v>
+        <v>471.4719074536731</v>
       </c>
       <c r="L38" t="n">
-        <v>897.9892926292099</v>
+        <v>897.9892926292094</v>
       </c>
       <c r="M38" t="n">
-        <v>1378.72172309979</v>
+        <v>1378.721723099789</v>
       </c>
       <c r="N38" t="n">
-        <v>1845.962078491428</v>
+        <v>1845.962078491427</v>
       </c>
       <c r="O38" t="n">
         <v>2234.920907389453</v>
@@ -7199,25 +7199,25 @@
         <v>2682.971485691603</v>
       </c>
       <c r="S38" t="n">
-        <v>2664.42360772846</v>
+        <v>2664.423607728459</v>
       </c>
       <c r="T38" t="n">
         <v>2599.386204993291</v>
       </c>
       <c r="U38" t="n">
-        <v>2501.637584279789</v>
+        <v>2501.637584279788</v>
       </c>
       <c r="V38" t="n">
-        <v>2321.754354139879</v>
+        <v>2321.754354139878</v>
       </c>
       <c r="W38" t="n">
         <v>2116.315467961628</v>
       </c>
       <c r="X38" t="n">
-        <v>1891.38137144727</v>
+        <v>1891.381371447269</v>
       </c>
       <c r="Y38" t="n">
-        <v>1654.935559987257</v>
+        <v>1654.935559987256</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.6762738398562</v>
       </c>
       <c r="I39" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J39" t="n">
-        <v>139.1016429053728</v>
+        <v>139.1016429053727</v>
       </c>
       <c r="K39" t="n">
         <v>411.6426132810567</v>
       </c>
       <c r="L39" t="n">
-        <v>835.351057955643</v>
+        <v>595.1594496782172</v>
       </c>
       <c r="M39" t="n">
-        <v>1387.935342753078</v>
+        <v>1147.743734475652</v>
       </c>
       <c r="N39" t="n">
-        <v>1968.539792310512</v>
+        <v>1728.348184033086</v>
       </c>
       <c r="O39" t="n">
-        <v>1992.176419612814</v>
+        <v>2183.979593524823</v>
       </c>
       <c r="P39" t="n">
-        <v>2345.181676717532</v>
+        <v>2536.98485062954</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.98485062954</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.02405381807782</v>
+        <v>97.25500969476658</v>
       </c>
       <c r="C40" t="n">
-        <v>65.50412824390661</v>
+        <v>84.73508412059536</v>
       </c>
       <c r="D40" t="n">
-        <v>65.50412824390661</v>
+        <v>84.73508412059536</v>
       </c>
       <c r="E40" t="n">
-        <v>65.50412824390661</v>
+        <v>84.73508412059536</v>
       </c>
       <c r="F40" t="n">
-        <v>65.50412824390661</v>
+        <v>65.50412824390665</v>
       </c>
       <c r="G40" t="n">
-        <v>53.90847211762892</v>
+        <v>53.90847211762895</v>
       </c>
       <c r="H40" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="I40" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="J40" t="n">
-        <v>53.65942971383206</v>
+        <v>53.65942971383205</v>
       </c>
       <c r="K40" t="n">
         <v>113.2314592948577</v>
@@ -7351,31 +7351,31 @@
         <v>772.7806041570276</v>
       </c>
       <c r="Q40" t="n">
-        <v>772.7806041570276</v>
+        <v>753.3392184272443</v>
       </c>
       <c r="R40" t="n">
-        <v>772.7806041570276</v>
+        <v>753.3392184272443</v>
       </c>
       <c r="S40" t="n">
-        <v>720.1411496565414</v>
+        <v>700.699763926758</v>
       </c>
       <c r="T40" t="n">
-        <v>645.0326296600978</v>
+        <v>625.5912439303144</v>
       </c>
       <c r="U40" t="n">
-        <v>514.9508731247129</v>
+        <v>495.5094873949295</v>
       </c>
       <c r="V40" t="n">
-        <v>411.311612647284</v>
+        <v>391.8702269175005</v>
       </c>
       <c r="W40" t="n">
-        <v>282.2512551288316</v>
+        <v>262.8098693990481</v>
       </c>
       <c r="X40" t="n">
-        <v>208.0948349883559</v>
+        <v>188.6534492585724</v>
       </c>
       <c r="Y40" t="n">
-        <v>143.1557201447815</v>
+        <v>123.7143344149979</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1417.988064433386</v>
+        <v>1417.988064433385</v>
       </c>
       <c r="C41" t="n">
-        <v>1193.150349730342</v>
+        <v>1193.150349730341</v>
       </c>
       <c r="D41" t="n">
-        <v>977.4224289217135</v>
+        <v>977.4224289217134</v>
       </c>
       <c r="E41" t="n">
-        <v>739.7327529919689</v>
+        <v>739.7327529919687</v>
       </c>
       <c r="F41" t="n">
-        <v>482.6776062662879</v>
+        <v>482.6776062662875</v>
       </c>
       <c r="G41" t="n">
         <v>224.1780587890606</v>
       </c>
       <c r="H41" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="I41" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="J41" t="n">
         <v>167.9486999418282</v>
@@ -7415,25 +7415,25 @@
         <v>471.4719074536731</v>
       </c>
       <c r="L41" t="n">
-        <v>897.9892926292096</v>
+        <v>897.9892926292094</v>
       </c>
       <c r="M41" t="n">
         <v>1378.721723099789</v>
       </c>
       <c r="N41" t="n">
-        <v>1845.962078491428</v>
+        <v>1845.962078491427</v>
       </c>
       <c r="O41" t="n">
-        <v>2234.920907389453</v>
+        <v>2234.920907389452</v>
       </c>
       <c r="P41" t="n">
         <v>2534.730809112315</v>
       </c>
       <c r="Q41" t="n">
-        <v>2682.971485691603</v>
+        <v>2682.971485691602</v>
       </c>
       <c r="R41" t="n">
-        <v>2682.971485691603</v>
+        <v>2682.971485691602</v>
       </c>
       <c r="S41" t="n">
         <v>2664.423607728459</v>
@@ -7442,7 +7442,7 @@
         <v>2599.386204993291</v>
       </c>
       <c r="U41" t="n">
-        <v>2501.637584279788</v>
+        <v>2501.637584279789</v>
       </c>
       <c r="V41" t="n">
         <v>2321.754354139878</v>
@@ -7451,7 +7451,7 @@
         <v>2116.315467961628</v>
       </c>
       <c r="X41" t="n">
-        <v>1891.38137144727</v>
+        <v>1891.381371447269</v>
       </c>
       <c r="Y41" t="n">
         <v>1654.935559987256</v>
@@ -7482,28 +7482,28 @@
         <v>209.9870355623326</v>
       </c>
       <c r="H42" t="n">
-        <v>112.6762738398562</v>
+        <v>112.6762738398561</v>
       </c>
       <c r="I42" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="J42" t="n">
         <v>139.1016429053727</v>
       </c>
       <c r="K42" t="n">
-        <v>332.6530881963403</v>
+        <v>411.6426132810567</v>
       </c>
       <c r="L42" t="n">
-        <v>756.3615328709266</v>
+        <v>835.351057955643</v>
       </c>
       <c r="M42" t="n">
-        <v>1308.945817668362</v>
+        <v>1387.935342753078</v>
       </c>
       <c r="N42" t="n">
-        <v>1889.550267225796</v>
+        <v>1536.545010121078</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.181676717532</v>
+        <v>1992.176419612814</v>
       </c>
       <c r="P42" t="n">
         <v>2345.181676717532</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.02405381807762</v>
+        <v>78.02405381807779</v>
       </c>
       <c r="C43" t="n">
-        <v>65.50412824390648</v>
+        <v>65.50412824390658</v>
       </c>
       <c r="D43" t="n">
-        <v>65.50412824390648</v>
+        <v>65.50412824390658</v>
       </c>
       <c r="E43" t="n">
-        <v>65.50412824390648</v>
+        <v>65.50412824390658</v>
       </c>
       <c r="F43" t="n">
-        <v>65.50412824390648</v>
+        <v>65.50412824390658</v>
       </c>
       <c r="G43" t="n">
-        <v>53.90847211762886</v>
+        <v>53.9084721176289</v>
       </c>
       <c r="H43" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="I43" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="J43" t="n">
-        <v>53.65942971383205</v>
+        <v>53.65942971383204</v>
       </c>
       <c r="K43" t="n">
         <v>113.2314592948577</v>
@@ -7576,43 +7576,43 @@
         <v>247.0684358306567</v>
       </c>
       <c r="M43" t="n">
-        <v>400.0982093123069</v>
+        <v>400.0982093123068</v>
       </c>
       <c r="N43" t="n">
-        <v>552.7237342881845</v>
+        <v>552.7237342881843</v>
       </c>
       <c r="O43" t="n">
-        <v>682.7795564389658</v>
+        <v>682.7795564389656</v>
       </c>
       <c r="P43" t="n">
-        <v>772.7806041570276</v>
+        <v>772.7806041570275</v>
       </c>
       <c r="Q43" t="n">
-        <v>772.7806041570276</v>
+        <v>753.3392184272442</v>
       </c>
       <c r="R43" t="n">
-        <v>772.7806041570276</v>
+        <v>753.3392184272442</v>
       </c>
       <c r="S43" t="n">
-        <v>720.1411496565414</v>
+        <v>700.699763926758</v>
       </c>
       <c r="T43" t="n">
-        <v>645.0326296600979</v>
+        <v>625.5912439303144</v>
       </c>
       <c r="U43" t="n">
-        <v>514.9508731247131</v>
+        <v>495.5094873949295</v>
       </c>
       <c r="V43" t="n">
-        <v>411.3116126472843</v>
+        <v>372.6392710408116</v>
       </c>
       <c r="W43" t="n">
-        <v>282.251255128832</v>
+        <v>243.5789135223592</v>
       </c>
       <c r="X43" t="n">
-        <v>208.0948349883563</v>
+        <v>169.4224933818835</v>
       </c>
       <c r="Y43" t="n">
-        <v>143.1557201447819</v>
+        <v>104.4833785383091</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1417.988064433385</v>
+        <v>1417.988064433384</v>
       </c>
       <c r="C44" t="n">
-        <v>1193.150349730341</v>
+        <v>1193.15034973034</v>
       </c>
       <c r="D44" t="n">
-        <v>977.4224289217132</v>
+        <v>977.4224289217118</v>
       </c>
       <c r="E44" t="n">
-        <v>739.7327529919683</v>
+        <v>739.7327529919673</v>
       </c>
       <c r="F44" t="n">
-        <v>482.6776062662875</v>
+        <v>482.6776062662865</v>
       </c>
       <c r="G44" t="n">
-        <v>224.1780587890606</v>
+        <v>224.1780587890603</v>
       </c>
       <c r="H44" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="I44" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="J44" t="n">
-        <v>167.9486999418282</v>
+        <v>167.9486999418281</v>
       </c>
       <c r="K44" t="n">
-        <v>471.4719074536731</v>
+        <v>471.471907453673</v>
       </c>
       <c r="L44" t="n">
-        <v>897.9892926292092</v>
+        <v>897.9892926292093</v>
       </c>
       <c r="M44" t="n">
         <v>1378.721723099789</v>
@@ -7661,37 +7661,37 @@
         <v>1845.962078491427</v>
       </c>
       <c r="O44" t="n">
-        <v>2234.920907389452</v>
+        <v>2234.920907389453</v>
       </c>
       <c r="P44" t="n">
         <v>2534.730809112315</v>
       </c>
       <c r="Q44" t="n">
-        <v>2682.971485691602</v>
+        <v>2682.971485691603</v>
       </c>
       <c r="R44" t="n">
-        <v>2682.971485691602</v>
+        <v>2682.971485691598</v>
       </c>
       <c r="S44" t="n">
-        <v>2664.423607728459</v>
+        <v>2664.423607728455</v>
       </c>
       <c r="T44" t="n">
-        <v>2599.386204993291</v>
+        <v>2599.386204993288</v>
       </c>
       <c r="U44" t="n">
-        <v>2501.637584279788</v>
+        <v>2501.637584279785</v>
       </c>
       <c r="V44" t="n">
-        <v>2321.754354139878</v>
+        <v>2321.754354139875</v>
       </c>
       <c r="W44" t="n">
-        <v>2116.315467961627</v>
+        <v>2116.315467961625</v>
       </c>
       <c r="X44" t="n">
-        <v>1891.381371447269</v>
+        <v>1891.381371447267</v>
       </c>
       <c r="Y44" t="n">
-        <v>1654.935559987255</v>
+        <v>1654.935559987254</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7716,34 @@
         <v>338.4435201772731</v>
       </c>
       <c r="G45" t="n">
-        <v>209.9870355623326</v>
+        <v>209.9870355623325</v>
       </c>
       <c r="H45" t="n">
         <v>112.6762738398561</v>
       </c>
       <c r="I45" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="J45" t="n">
         <v>139.1016429053727</v>
       </c>
       <c r="K45" t="n">
-        <v>411.6426132810567</v>
+        <v>411.6426132810566</v>
       </c>
       <c r="L45" t="n">
         <v>835.351057955643</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.935342753078</v>
+        <v>1147.743734475652</v>
       </c>
       <c r="N45" t="n">
-        <v>1536.545010121078</v>
+        <v>1728.348184033086</v>
       </c>
       <c r="O45" t="n">
-        <v>1992.176419612814</v>
+        <v>2183.979593524823</v>
       </c>
       <c r="P45" t="n">
-        <v>2345.181676717532</v>
+        <v>2536.98485062954</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.98485062954</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>116.69639542455</v>
+        <v>116.6963954245521</v>
       </c>
       <c r="C46" t="n">
-        <v>104.1764698503788</v>
+        <v>65.504128243906</v>
       </c>
       <c r="D46" t="n">
-        <v>65.50412824390658</v>
+        <v>65.504128243906</v>
       </c>
       <c r="E46" t="n">
-        <v>65.50412824390658</v>
+        <v>65.504128243906</v>
       </c>
       <c r="F46" t="n">
-        <v>65.50412824390658</v>
+        <v>65.504128243906</v>
       </c>
       <c r="G46" t="n">
-        <v>53.9084721176289</v>
+        <v>53.90847211762857</v>
       </c>
       <c r="H46" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="I46" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="J46" t="n">
-        <v>53.65942971383204</v>
+        <v>53.65942971383197</v>
       </c>
       <c r="K46" t="n">
-        <v>113.2314592948577</v>
+        <v>113.2314592948576</v>
       </c>
       <c r="L46" t="n">
         <v>247.0684358306567</v>
@@ -7831,25 +7831,25 @@
         <v>772.7806041570275</v>
       </c>
       <c r="S46" t="n">
-        <v>720.1411496565413</v>
+        <v>720.1411496565415</v>
       </c>
       <c r="T46" t="n">
-        <v>645.0326296600977</v>
+        <v>645.0326296600981</v>
       </c>
       <c r="U46" t="n">
-        <v>514.9508731247128</v>
+        <v>514.9508731247136</v>
       </c>
       <c r="V46" t="n">
-        <v>411.3116126472839</v>
+        <v>411.3116126472849</v>
       </c>
       <c r="W46" t="n">
-        <v>282.2512551288315</v>
+        <v>282.2512551288328</v>
       </c>
       <c r="X46" t="n">
-        <v>208.0948349883558</v>
+        <v>208.0948349883573</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.1557201447814</v>
+        <v>143.1557201447832</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>159.0427441082865</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>190.7659506544006</v>
       </c>
       <c r="L2" t="n">
         <v>203.0206155432522</v>
@@ -7988,16 +7988,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8064,19 +8064,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N3" t="n">
         <v>118.1755444478459</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P3" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8146,13 +8146,13 @@
         <v>124.820146137783</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>115.2049082581395</v>
       </c>
       <c r="O4" t="n">
         <v>124.4388841724762</v>
       </c>
       <c r="P4" t="n">
-        <v>123.36440667007</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L5" t="n">
         <v>203.5031588434685</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N5" t="n">
-        <v>197.8585175523677</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,25 +8295,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>123.9391158470206</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>124.5183802515017</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.1955948250301</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,19 +8374,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M7" t="n">
-        <v>124.820146137783</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>115.6874515583558</v>
       </c>
       <c r="O7" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
         <v>123.36440667007</v>
@@ -8453,25 +8453,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>378.0975356796908</v>
+        <v>378.0975356796905</v>
       </c>
       <c r="L8" t="n">
-        <v>214.6713305075785</v>
+        <v>310.0574453424641</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>385.6726458778742</v>
+        <v>385.6726458778739</v>
       </c>
       <c r="O8" t="n">
-        <v>386.2293284857645</v>
+        <v>386.2293284857642</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,22 +8532,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>311.2707008723104</v>
       </c>
       <c r="L9" t="n">
-        <v>311.8499652767919</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>147.3416554250413</v>
       </c>
       <c r="N9" t="n">
-        <v>305.9896727733524</v>
+        <v>305.9896727733521</v>
       </c>
       <c r="O9" t="n">
-        <v>147.7172014745128</v>
+        <v>315.1339803167549</v>
       </c>
       <c r="P9" t="n">
-        <v>308.1287377297874</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8775,13 +8775,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>258.35288933251</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9573215172558</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>163.2490860720803</v>
       </c>
       <c r="K15" t="n">
-        <v>77.11647122985717</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>67.60716555987946</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.7251174006068</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406825</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9246,7 +9246,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>481.4231890240458</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9255,10 +9255,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>511.3517551892954</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>67.60716555987921</v>
+        <v>67.60716555987946</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>135.0287553520083</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>463.0192299367937</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.16263722393739</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,10 +9717,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>68.51089864596435</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>321.0279925169718</v>
+        <v>239.4746627556831</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>79.35989434750486</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,13 +9951,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>155.5483080487451</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>54.10412094036932</v>
+        <v>239.4746627556829</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>79.35989434750491</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>77.61308009249039</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10203,13 +10203,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>161.9679150618756</v>
       </c>
       <c r="P30" t="n">
-        <v>57.43063245947651</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>193.3130749811319</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>77.61308009249039</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>68.51089864596435</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10443,10 +10443,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>171.383813093104</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.35989434750486</v>
+        <v>198.3412835291194</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>169.058217027087</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>186.7867207987065</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10905,7 +10905,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>239.4746627556831</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10914,13 +10914,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66264921183539</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>79.35989434750486</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>264.017409040881</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,13 +11148,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>186.7867207987065</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>57.43063245947651</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>362.7987967361861</v>
       </c>
       <c r="N45" t="n">
-        <v>186.7867207987065</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>79.35989434750486</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.6284241691393</v>
+        <v>285.6284241691388</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>138.9113714324521</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>317.52368187155</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>319.053242012568</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.67119820549998</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.8181893912517</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.1234844516362</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>290.8754232681785</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.2338180861542</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.05517732913307</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>63.68287245207646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.82916486206812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.25286429881663</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.6419544857802</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>138.4119425424772</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>297.6171072114574</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.6284241691391</v>
       </c>
       <c r="D14" t="n">
-        <v>276.6097282136672</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>298.3518657835726</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>191.4125873706579</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>285.7238421623401</v>
+        <v>285.72384216234</v>
       </c>
       <c r="Y14" t="n">
-        <v>201.1660418982418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.23381808615454</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>74.56346483305974</v>
       </c>
       <c r="H16" t="n">
-        <v>63.68287245207679</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.80839618176078</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.1616218869313</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3288103082642</v>
+        <v>127.3288103082641</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>115.5304202888238</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>115.530420288827</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.82304257813118</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>50.70737771069304</v>
+        <v>115.5304202888278</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.167705931948149e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>905965.7607976658</v>
+        <v>905965.7607976659</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>905965.7607976658</v>
+        <v>905965.7607976659</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862152.4075737417</v>
+        <v>862152.4075737426</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862152.4075737422</v>
+        <v>862152.4075737419</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955039.1158865857</v>
+        <v>955039.1158865853</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955039.1158865857</v>
+        <v>955039.1158865854</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479765.0378088634</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="C2" t="n">
         <v>479765.0378088636</v>
@@ -26320,37 +26320,37 @@
         <v>479765.0378088637</v>
       </c>
       <c r="E2" t="n">
-        <v>422413.6725590255</v>
+        <v>422413.6725590266</v>
       </c>
       <c r="F2" t="n">
-        <v>422413.6725590255</v>
+        <v>422413.6725590252</v>
       </c>
       <c r="G2" t="n">
-        <v>474017.3993994953</v>
+        <v>474017.399399495</v>
       </c>
       <c r="H2" t="n">
-        <v>474017.3993994953</v>
+        <v>474017.3993994949</v>
       </c>
       <c r="I2" t="n">
         <v>479765.037808864</v>
       </c>
       <c r="J2" t="n">
-        <v>479765.0378088635</v>
+        <v>479765.0378088636</v>
       </c>
       <c r="K2" t="n">
         <v>479765.0378088637</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088635</v>
+        <v>479765.0378088638</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088639</v>
+        <v>479765.037808864</v>
       </c>
       <c r="N2" t="n">
         <v>479765.037808864</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088639</v>
+        <v>479765.037808864</v>
       </c>
       <c r="P2" t="n">
         <v>479765.037808864</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58190.8102564059</v>
+        <v>58190.8102564058</v>
       </c>
       <c r="E3" t="n">
-        <v>286844.7898318858</v>
+        <v>286844.7898318854</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50431.26929050043</v>
+        <v>50431.26929050041</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26304.09847358678</v>
+        <v>26304.09847358788</v>
       </c>
       <c r="J3" t="n">
-        <v>87907.14082752775</v>
+        <v>87907.14082752792</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89204.41143269488</v>
+        <v>89204.41143269485</v>
       </c>
       <c r="M3" t="n">
-        <v>109939.0420696814</v>
+        <v>109939.0420696812</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32143.68741700856</v>
+        <v>32143.6874170088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>373082.8084381231</v>
       </c>
       <c r="C4" t="n">
-        <v>373082.8084381232</v>
+        <v>373082.8084381231</v>
       </c>
       <c r="D4" t="n">
-        <v>339040.2640971159</v>
+        <v>339040.264097116</v>
       </c>
       <c r="E4" t="n">
-        <v>198679.5491393928</v>
+        <v>198679.5491393932</v>
       </c>
       <c r="F4" t="n">
         <v>198679.5491393929</v>
       </c>
       <c r="G4" t="n">
-        <v>245598.6454975415</v>
+        <v>245598.6454975416</v>
       </c>
       <c r="H4" t="n">
-        <v>245598.6454975415</v>
+        <v>245598.6454975416</v>
       </c>
       <c r="I4" t="n">
         <v>243640.716420192</v>
@@ -26442,7 +26442,7 @@
         <v>244691.5222505019</v>
       </c>
       <c r="K4" t="n">
-        <v>244691.5222505019</v>
+        <v>244691.5222505018</v>
       </c>
       <c r="L4" t="n">
         <v>243698.1023269815</v>
@@ -26473,43 +26473,43 @@
         <v>34353.73115816552</v>
       </c>
       <c r="D5" t="n">
-        <v>45743.49152770316</v>
+        <v>45743.49152770314</v>
       </c>
       <c r="E5" t="n">
-        <v>48995.63447551714</v>
+        <v>48995.63447551712</v>
       </c>
       <c r="F5" t="n">
-        <v>48995.63447551714</v>
+        <v>48995.63447551709</v>
       </c>
       <c r="G5" t="n">
-        <v>54295.267447996</v>
+        <v>54295.26744799594</v>
       </c>
       <c r="H5" t="n">
-        <v>54295.267447996</v>
+        <v>54295.2674479959</v>
       </c>
       <c r="I5" t="n">
         <v>56585.33538639307</v>
       </c>
       <c r="J5" t="n">
-        <v>64419.99235396378</v>
+        <v>64419.99235396375</v>
       </c>
       <c r="K5" t="n">
-        <v>64419.99235396378</v>
+        <v>64419.99235396376</v>
       </c>
       <c r="L5" t="n">
         <v>57104.75609286632</v>
       </c>
       <c r="M5" t="n">
-        <v>56585.3353863931</v>
+        <v>56585.33538639308</v>
       </c>
       <c r="N5" t="n">
         <v>56585.33538639308</v>
       </c>
       <c r="O5" t="n">
-        <v>56585.33538639308</v>
+        <v>56585.33538639307</v>
       </c>
       <c r="P5" t="n">
-        <v>56585.33538639307</v>
+        <v>56585.33538639303</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68326.14209221452</v>
+        <v>68326.14209221464</v>
       </c>
       <c r="C6" t="n">
-        <v>72328.49821257484</v>
+        <v>72328.49821257489</v>
       </c>
       <c r="D6" t="n">
-        <v>36790.47192763877</v>
+        <v>36790.47192763885</v>
       </c>
       <c r="E6" t="n">
-        <v>-112106.3008877702</v>
+        <v>-112335.7063487685</v>
       </c>
       <c r="F6" t="n">
-        <v>174738.4889441155</v>
+        <v>174509.083483116</v>
       </c>
       <c r="G6" t="n">
-        <v>123692.2171634573</v>
+        <v>123669.2266098197</v>
       </c>
       <c r="H6" t="n">
-        <v>174123.4864539579</v>
+        <v>174100.4959003199</v>
       </c>
       <c r="I6" t="n">
-        <v>153234.8875286921</v>
+        <v>153234.887528691</v>
       </c>
       <c r="J6" t="n">
-        <v>82746.38237687008</v>
+        <v>82746.38237687002</v>
       </c>
       <c r="K6" t="n">
-        <v>170653.5232043979</v>
+        <v>170653.5232043983</v>
       </c>
       <c r="L6" t="n">
-        <v>89757.76795632082</v>
+        <v>89757.76795632111</v>
       </c>
       <c r="M6" t="n">
-        <v>69599.94393259732</v>
+        <v>69599.94393259776</v>
       </c>
       <c r="N6" t="n">
-        <v>179538.986002279</v>
+        <v>179538.9860022789</v>
       </c>
       <c r="O6" t="n">
-        <v>147395.2985852702</v>
+        <v>147395.2985852701</v>
       </c>
       <c r="P6" t="n">
         <v>179538.986002279</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="F2" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="G2" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H2" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I2" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="J2" t="n">
         <v>103.2186958843862</v>
@@ -26722,10 +26722,10 @@
         <v>155.525083524507</v>
       </c>
       <c r="O2" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="P2" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.4223044056227</v>
+        <v>100.4223044056219</v>
       </c>
       <c r="F3" t="n">
-        <v>100.4223044056226</v>
+        <v>100.4223044056219</v>
       </c>
       <c r="G3" t="n">
-        <v>100.4223044056226</v>
+        <v>100.4223044056219</v>
       </c>
       <c r="H3" t="n">
-        <v>100.4223044056226</v>
+        <v>100.4223044056216</v>
       </c>
       <c r="I3" t="n">
         <v>125.1986494063733</v>
       </c>
       <c r="J3" t="n">
-        <v>125.1986494063734</v>
+        <v>125.1986494063732</v>
       </c>
       <c r="K3" t="n">
         <v>125.1986494063733</v>
@@ -26793,43 +26793,43 @@
         <v>11.94294668035388</v>
       </c>
       <c r="D4" t="n">
-        <v>199.2745317056441</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="E4" t="n">
-        <v>641.9609040317705</v>
+        <v>641.9609040317698</v>
       </c>
       <c r="F4" t="n">
-        <v>641.9609040317705</v>
+        <v>641.9609040317698</v>
       </c>
       <c r="G4" t="n">
-        <v>641.9609040317705</v>
+        <v>641.9609040317697</v>
       </c>
       <c r="H4" t="n">
-        <v>641.9609040317705</v>
+        <v>641.9609040317692</v>
       </c>
       <c r="I4" t="n">
         <v>670.7428714229005</v>
       </c>
       <c r="J4" t="n">
-        <v>871.9271258651378</v>
+        <v>871.9271258651374</v>
       </c>
       <c r="K4" t="n">
-        <v>871.9271258651378</v>
+        <v>871.9271258651374</v>
       </c>
       <c r="L4" t="n">
         <v>684.5955408398476</v>
       </c>
       <c r="M4" t="n">
-        <v>670.742871422901</v>
+        <v>670.7428714229006</v>
       </c>
       <c r="N4" t="n">
-        <v>670.7428714229007</v>
+        <v>670.7428714229006</v>
       </c>
       <c r="O4" t="n">
-        <v>670.7428714229006</v>
+        <v>670.7428714229005</v>
       </c>
       <c r="P4" t="n">
-        <v>670.7428714229005</v>
+        <v>670.7428714228996</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.03908661312553</v>
+        <v>63.03908661312551</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.17960927126065</v>
+        <v>40.17960927126097</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>-1.747185226996326e-13</v>
       </c>
       <c r="L2" t="n">
         <v>111.5055142908686</v>
       </c>
       <c r="M2" t="n">
-        <v>3.839959962377719</v>
+        <v>3.839959962377691</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.1796092712607</v>
+        <v>40.179609271261</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.4223044056227</v>
+        <v>100.4223044056219</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>24.77634500075071</v>
+        <v>24.77634500075173</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.3315850252902</v>
+        <v>187.3315850252899</v>
       </c>
       <c r="E4" t="n">
-        <v>442.6863723261264</v>
+        <v>442.686372326126</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>28.78196739113002</v>
+        <v>28.78196739113127</v>
       </c>
       <c r="J4" t="n">
-        <v>213.1272011225911</v>
+        <v>213.1272011225908</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.8337029091798</v>
+        <v>428.8337029091791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.03908661312553</v>
+        <v>63.03908661312551</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.17960927126065</v>
+        <v>40.17960927126097</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.3315850252902</v>
+        <v>187.3315850252899</v>
       </c>
       <c r="M4" t="n">
-        <v>442.6863723261264</v>
+        <v>442.686372326126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27382,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>368.5860564719243</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>184.8470169628252</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>240.393536242792</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>346.9666341606211</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.3059009173926</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -27464,10 +27464,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>133.6147831633436</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>122.8275126335687</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27518,7 +27518,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27546,19 +27546,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>155.2876044654746</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>48.9373187639133</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>201.0533175342936</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>216.9969927832241</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27625,7 +27625,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S5" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,16 +27673,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>321.6665346826642</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>377.7001704205973</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -27746,19 +27746,19 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>205.7904970416172</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>214.1687196457955</v>
       </c>
       <c r="W6" t="n">
-        <v>226.9597633986692</v>
+        <v>228.3833626429673</v>
       </c>
       <c r="X6" t="n">
-        <v>183.9948715606295</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27786,7 +27786,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>155.2876044654746</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>199.6297182899954</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>272.7754900317192</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.29545978359</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>190.8285724171952</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,10 +27859,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>191.5633309893104</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>246.4316179369542</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>134.334949657374</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>159.6350491353312</v>
       </c>
       <c r="X8" t="n">
-        <v>272.270009657734</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.25058680385511</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27944,13 +27944,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>125.7054427894409</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>26.83713462050559</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>65.82835888005633</v>
+        <v>12.29813326470554</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>149.0182402692311</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28071,7 +28071,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>84.02030576213076</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="C11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="D11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="E11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="F11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="G11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="H11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="I11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>64.37249628586018</v>
+        <v>64.37249628586036</v>
       </c>
       <c r="S11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="T11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="U11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="V11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="W11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="X11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="C13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="D13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="E13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="F13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="G13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="H13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="I13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="J13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="K13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="L13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="M13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="N13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="O13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="P13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="R13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="S13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="T13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="U13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="V13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="W13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="X13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.48599691138141</v>
+        <v>92.48599691138182</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="C14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="D14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="E14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="F14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="G14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="H14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="I14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>64.37249628586019</v>
+        <v>64.37249628586036</v>
       </c>
       <c r="S14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="T14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="U14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="V14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="W14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="X14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="C16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="D16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="E16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="F16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="G16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="H16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="I16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="J16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="K16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="L16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="M16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="N16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="O16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="P16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="R16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="S16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="T16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="U16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="V16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="W16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="X16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.48599691138148</v>
+        <v>92.48599691138156</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="E17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="F17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="G17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>64.37249628586019</v>
+        <v>64.37249628586036</v>
       </c>
       <c r="S17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="U17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y17" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,19 +28731,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.7327749705467</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I19" t="n">
         <v>137.3151617734499</v>
       </c>
       <c r="J19" t="n">
-        <v>46.65364552189479</v>
+        <v>46.43057206796128</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.98819996759885</v>
+        <v>22.98819996759894</v>
       </c>
       <c r="R19" t="n">
         <v>139.8841255784835</v>
       </c>
       <c r="S19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="U19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="E20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="F20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="G20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>64.37249628586019</v>
+        <v>64.37249628586045</v>
       </c>
       <c r="S20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="U20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.3020100705731</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,16 +28971,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I22" t="n">
         <v>137.3151617734499</v>
       </c>
       <c r="J22" t="n">
-        <v>46.65364552189479</v>
+        <v>46.65364552189492</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.98819996759884</v>
+        <v>22.76512651366595</v>
       </c>
       <c r="R22" t="n">
-        <v>139.8841255784834</v>
+        <v>139.8841255784835</v>
       </c>
       <c r="S22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="U22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="E23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="F23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="G23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I23" t="n">
         <v>151.6851235621293</v>
@@ -29086,25 +29086,25 @@
         <v>58.11578439981635</v>
       </c>
       <c r="S23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="U23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y23" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="C25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,10 +29208,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="H25" t="n">
-        <v>117.2394653340995</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="I25" t="n">
         <v>135.9715527691469</v>
@@ -29244,25 +29244,25 @@
         <v>137.8752107854718</v>
       </c>
       <c r="S25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="T25" t="n">
-        <v>155.525083524507</v>
+        <v>117.2394653340989</v>
       </c>
       <c r="U25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="V25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="W25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="X25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245071</v>
       </c>
     </row>
     <row r="26">
@@ -29311,13 +29311,13 @@
         <v>103.2186958843862</v>
       </c>
       <c r="O26" t="n">
-        <v>28.9745783485331</v>
+        <v>103.2186958843862</v>
       </c>
       <c r="P26" t="n">
         <v>103.2186958843862</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.2186958843862</v>
+        <v>28.97457834853356</v>
       </c>
       <c r="R26" t="n">
         <v>103.2186958843862</v>
@@ -29533,7 +29533,7 @@
         <v>103.2186958843862</v>
       </c>
       <c r="J29" t="n">
-        <v>28.97457834853424</v>
+        <v>74.07748983310239</v>
       </c>
       <c r="K29" t="n">
         <v>103.2186958843862</v>
@@ -29557,7 +29557,7 @@
         <v>103.2186958843862</v>
       </c>
       <c r="R29" t="n">
-        <v>103.2186958843862</v>
+        <v>58.11578439981635</v>
       </c>
       <c r="S29" t="n">
         <v>103.2186958843862</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>54.85097385296132</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>54.85097385296132</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>4.034222421944008</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.24697187248549</v>
+        <v>23.28119429442952</v>
       </c>
       <c r="R34" t="n">
         <v>137.8752107854718</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>58.11578439981635</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>112.6702302340731</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>155.525083524507</v>
@@ -30204,7 +30204,7 @@
         <v>155.525083524507</v>
       </c>
       <c r="W37" t="n">
-        <v>155.525083524507</v>
+        <v>117.2394653340997</v>
       </c>
       <c r="X37" t="n">
         <v>155.525083524507</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2394653340994</v>
+        <v>155.525083524507</v>
       </c>
       <c r="C40" t="n">
         <v>155.525083524507</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>131.9172021065588</v>
       </c>
       <c r="G40" t="n">
         <v>155.525083524507</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.24697187248549</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.8752107854718</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="C41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="D41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="E41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="F41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="G41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="H41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="I41" t="n">
         <v>151.6851235621293</v>
@@ -30508,25 +30508,25 @@
         <v>58.11578439981635</v>
       </c>
       <c r="S41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="T41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="U41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="V41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="W41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="X41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="Y41" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.2394653340988</v>
+        <v>155.525083524507</v>
       </c>
       <c r="C43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="H43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="I43" t="n">
         <v>135.9715527691469</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.24697187248549</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>137.8752107854718</v>
       </c>
       <c r="S43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="T43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="U43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="V43" t="n">
-        <v>155.5250835245071</v>
+        <v>136.486437206585</v>
       </c>
       <c r="W43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="X43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.5250835245071</v>
+        <v>155.525083524507</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="C44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="D44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="E44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="F44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="G44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="H44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="I44" t="n">
         <v>151.6851235621293</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.11578439981635</v>
+        <v>58.1157843998123</v>
       </c>
       <c r="S44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="T44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="U44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="V44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="W44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="X44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="Y44" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="C46" t="n">
-        <v>155.525083524507</v>
+        <v>117.2394653340968</v>
       </c>
       <c r="D46" t="n">
-        <v>113.2555560501074</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="H46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="I46" t="n">
         <v>135.9715527691469</v>
@@ -30903,25 +30903,25 @@
         <v>137.8752107854718</v>
       </c>
       <c r="S46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="T46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="U46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="V46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="W46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="X46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.525083524507</v>
+        <v>155.5250835245073</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.403707756404513</v>
+        <v>0.40370775640451</v>
       </c>
       <c r="H11" t="n">
-        <v>4.134472060277719</v>
+        <v>4.134472060277689</v>
       </c>
       <c r="I11" t="n">
-        <v>15.563943278785</v>
+        <v>15.56394327878489</v>
       </c>
       <c r="J11" t="n">
-        <v>34.26419119013756</v>
+        <v>34.26419119013731</v>
       </c>
       <c r="K11" t="n">
-        <v>51.3531405187406</v>
+        <v>51.35314051874023</v>
       </c>
       <c r="L11" t="n">
-        <v>63.70811176880523</v>
+        <v>63.70811176880477</v>
       </c>
       <c r="M11" t="n">
-        <v>70.88754958176398</v>
+        <v>70.88754958176347</v>
       </c>
       <c r="N11" t="n">
-        <v>72.03458424464831</v>
+        <v>72.03458424464779</v>
       </c>
       <c r="O11" t="n">
-        <v>68.02021524190093</v>
+        <v>68.02021524190044</v>
       </c>
       <c r="P11" t="n">
-        <v>58.05368000566451</v>
+        <v>58.05368000566409</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.59589597942788</v>
+        <v>43.59589597942756</v>
       </c>
       <c r="R11" t="n">
-        <v>25.35940735324501</v>
+        <v>25.35940735324483</v>
       </c>
       <c r="S11" t="n">
-        <v>9.199490499067847</v>
+        <v>9.199490499067782</v>
       </c>
       <c r="T11" t="n">
-        <v>1.767230703660756</v>
+        <v>1.767230703660744</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03229662051236103</v>
+        <v>0.0322966205123608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2160026924951129</v>
+        <v>0.2160026924951114</v>
       </c>
       <c r="H12" t="n">
-        <v>2.086131266992275</v>
+        <v>2.08613126699226</v>
       </c>
       <c r="I12" t="n">
-        <v>7.436934807397529</v>
+        <v>7.436934807397475</v>
       </c>
       <c r="J12" t="n">
-        <v>20.40751753963697</v>
+        <v>20.40751753963682</v>
       </c>
       <c r="K12" t="n">
-        <v>34.87969793680953</v>
+        <v>34.87969793680928</v>
       </c>
       <c r="L12" t="n">
-        <v>46.90005829811652</v>
+        <v>46.90005829811618</v>
       </c>
       <c r="M12" t="n">
-        <v>54.73015590106435</v>
+        <v>54.73015590106395</v>
       </c>
       <c r="N12" t="n">
-        <v>56.17870027310395</v>
+        <v>56.17870027310354</v>
       </c>
       <c r="O12" t="n">
-        <v>51.39253534992276</v>
+        <v>51.39253534992239</v>
       </c>
       <c r="P12" t="n">
-        <v>41.24704046426415</v>
+        <v>41.24704046426385</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.57255422095512</v>
+        <v>27.57255422095492</v>
       </c>
       <c r="R12" t="n">
-        <v>13.41111453930184</v>
+        <v>13.41111453930174</v>
       </c>
       <c r="S12" t="n">
-        <v>4.012155275073695</v>
+        <v>4.012155275073667</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8706424315921434</v>
+        <v>0.8706424315921372</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01421070345362586</v>
+        <v>0.01421070345362575</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1810894013871884</v>
+        <v>0.1810894013871871</v>
       </c>
       <c r="H13" t="n">
-        <v>1.61004940506064</v>
+        <v>1.610049405060628</v>
       </c>
       <c r="I13" t="n">
-        <v>5.445852179898358</v>
+        <v>5.445852179898319</v>
       </c>
       <c r="J13" t="n">
-        <v>12.80302067807422</v>
+        <v>12.80302067807413</v>
       </c>
       <c r="K13" t="n">
-        <v>21.03929590662061</v>
+        <v>21.03929590662046</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92305518441891</v>
+        <v>26.92305518441871</v>
       </c>
       <c r="M13" t="n">
-        <v>28.38658680108445</v>
+        <v>28.38658680108424</v>
       </c>
       <c r="N13" t="n">
-        <v>27.71161721409586</v>
+        <v>27.71161721409566</v>
       </c>
       <c r="O13" t="n">
-        <v>25.59616375243642</v>
+        <v>25.59616375243624</v>
       </c>
       <c r="P13" t="n">
-        <v>21.90193996413776</v>
+        <v>21.9019399641376</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.16376796524902</v>
+        <v>15.16376796524891</v>
       </c>
       <c r="R13" t="n">
-        <v>8.142437993282124</v>
+        <v>8.142437993282066</v>
       </c>
       <c r="S13" t="n">
-        <v>3.155894385993091</v>
+        <v>3.155894385993069</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7737456241088957</v>
+        <v>0.7737456241088901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00987760371202847</v>
+        <v>0.009877603712028398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4037077564045126</v>
+        <v>0.40370775640451</v>
       </c>
       <c r="H14" t="n">
-        <v>4.134472060277716</v>
+        <v>4.134472060277689</v>
       </c>
       <c r="I14" t="n">
-        <v>15.56394327878499</v>
+        <v>15.56394327878489</v>
       </c>
       <c r="J14" t="n">
-        <v>34.26419119013754</v>
+        <v>34.26419119013731</v>
       </c>
       <c r="K14" t="n">
-        <v>51.35314051874057</v>
+        <v>51.35314051874023</v>
       </c>
       <c r="L14" t="n">
-        <v>63.70811176880518</v>
+        <v>63.70811176880477</v>
       </c>
       <c r="M14" t="n">
-        <v>70.88754958176393</v>
+        <v>70.88754958176347</v>
       </c>
       <c r="N14" t="n">
-        <v>72.03458424464826</v>
+        <v>72.03458424464779</v>
       </c>
       <c r="O14" t="n">
-        <v>68.02021524190089</v>
+        <v>68.02021524190044</v>
       </c>
       <c r="P14" t="n">
-        <v>58.05368000566447</v>
+        <v>58.05368000566409</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.59589597942784</v>
+        <v>43.59589597942756</v>
       </c>
       <c r="R14" t="n">
-        <v>25.35940735324499</v>
+        <v>25.35940735324483</v>
       </c>
       <c r="S14" t="n">
-        <v>9.19949049906784</v>
+        <v>9.199490499067782</v>
       </c>
       <c r="T14" t="n">
-        <v>1.767230703660755</v>
+        <v>1.767230703660744</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03229662051236101</v>
+        <v>0.0322966205123608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2160026924951128</v>
+        <v>0.2160026924951114</v>
       </c>
       <c r="H15" t="n">
-        <v>2.086131266992274</v>
+        <v>2.08613126699226</v>
       </c>
       <c r="I15" t="n">
-        <v>7.436934807397524</v>
+        <v>7.436934807397475</v>
       </c>
       <c r="J15" t="n">
-        <v>20.40751753963695</v>
+        <v>20.40751753963682</v>
       </c>
       <c r="K15" t="n">
-        <v>34.87969793680951</v>
+        <v>34.87969793680928</v>
       </c>
       <c r="L15" t="n">
-        <v>46.90005829811648</v>
+        <v>46.90005829811618</v>
       </c>
       <c r="M15" t="n">
-        <v>54.73015590106431</v>
+        <v>54.73015590106395</v>
       </c>
       <c r="N15" t="n">
-        <v>56.17870027310391</v>
+        <v>56.17870027310354</v>
       </c>
       <c r="O15" t="n">
-        <v>51.39253534992272</v>
+        <v>51.39253534992239</v>
       </c>
       <c r="P15" t="n">
-        <v>41.24704046426412</v>
+        <v>41.24704046426385</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.5725542209551</v>
+        <v>27.57255422095492</v>
       </c>
       <c r="R15" t="n">
-        <v>13.41111453930183</v>
+        <v>13.41111453930174</v>
       </c>
       <c r="S15" t="n">
-        <v>4.012155275073693</v>
+        <v>4.012155275073667</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8706424315921428</v>
+        <v>0.8706424315921372</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01421070345362585</v>
+        <v>0.01421070345362575</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1810894013871883</v>
+        <v>0.1810894013871871</v>
       </c>
       <c r="H16" t="n">
-        <v>1.610049405060639</v>
+        <v>1.610049405060628</v>
       </c>
       <c r="I16" t="n">
-        <v>5.445852179898354</v>
+        <v>5.445852179898319</v>
       </c>
       <c r="J16" t="n">
-        <v>12.80302067807421</v>
+        <v>12.80302067807413</v>
       </c>
       <c r="K16" t="n">
-        <v>21.03929590662059</v>
+        <v>21.03929590662046</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92305518441889</v>
+        <v>26.92305518441871</v>
       </c>
       <c r="M16" t="n">
-        <v>28.38658680108443</v>
+        <v>28.38658680108424</v>
       </c>
       <c r="N16" t="n">
-        <v>27.71161721409584</v>
+        <v>27.71161721409566</v>
       </c>
       <c r="O16" t="n">
-        <v>25.5961637524364</v>
+        <v>25.59616375243624</v>
       </c>
       <c r="P16" t="n">
-        <v>21.90193996413774</v>
+        <v>21.9019399641376</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.16376796524901</v>
+        <v>15.16376796524891</v>
       </c>
       <c r="R16" t="n">
-        <v>8.142437993282117</v>
+        <v>8.142437993282066</v>
       </c>
       <c r="S16" t="n">
-        <v>3.155894385993089</v>
+        <v>3.155894385993069</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7737456241088951</v>
+        <v>0.7737456241088901</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009877603712028463</v>
+        <v>0.009877603712028398</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4037077564045125</v>
+        <v>0.40370775640451</v>
       </c>
       <c r="H17" t="n">
-        <v>4.134472060277715</v>
+        <v>4.134472060277689</v>
       </c>
       <c r="I17" t="n">
-        <v>15.56394327878498</v>
+        <v>15.56394327878489</v>
       </c>
       <c r="J17" t="n">
-        <v>34.26419119013752</v>
+        <v>34.26419119013731</v>
       </c>
       <c r="K17" t="n">
-        <v>51.35314051874055</v>
+        <v>51.35314051874023</v>
       </c>
       <c r="L17" t="n">
-        <v>63.70811176880517</v>
+        <v>63.70811176880477</v>
       </c>
       <c r="M17" t="n">
-        <v>70.88754958176391</v>
+        <v>70.88754958176347</v>
       </c>
       <c r="N17" t="n">
-        <v>72.03458424464824</v>
+        <v>72.03458424464779</v>
       </c>
       <c r="O17" t="n">
-        <v>68.02021524190087</v>
+        <v>68.02021524190044</v>
       </c>
       <c r="P17" t="n">
-        <v>58.05368000566445</v>
+        <v>58.05368000566409</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.59589597942783</v>
+        <v>43.59589597942756</v>
       </c>
       <c r="R17" t="n">
-        <v>25.35940735324498</v>
+        <v>25.35940735324483</v>
       </c>
       <c r="S17" t="n">
-        <v>9.199490499067839</v>
+        <v>9.199490499067782</v>
       </c>
       <c r="T17" t="n">
-        <v>1.767230703660754</v>
+        <v>1.767230703660744</v>
       </c>
       <c r="U17" t="n">
-        <v>0.032296620512361</v>
+        <v>0.0322966205123608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2160026924951127</v>
+        <v>0.2160026924951114</v>
       </c>
       <c r="H18" t="n">
-        <v>2.086131266992273</v>
+        <v>2.08613126699226</v>
       </c>
       <c r="I18" t="n">
-        <v>7.436934807397521</v>
+        <v>7.436934807397475</v>
       </c>
       <c r="J18" t="n">
-        <v>20.40751753963695</v>
+        <v>20.40751753963682</v>
       </c>
       <c r="K18" t="n">
-        <v>34.87969793680949</v>
+        <v>34.87969793680928</v>
       </c>
       <c r="L18" t="n">
-        <v>46.90005829811647</v>
+        <v>46.90005829811618</v>
       </c>
       <c r="M18" t="n">
-        <v>54.73015590106429</v>
+        <v>54.73015590106395</v>
       </c>
       <c r="N18" t="n">
-        <v>56.1787002731039</v>
+        <v>56.17870027310354</v>
       </c>
       <c r="O18" t="n">
-        <v>51.39253534992271</v>
+        <v>51.39253534992239</v>
       </c>
       <c r="P18" t="n">
-        <v>41.24704046426411</v>
+        <v>41.24704046426385</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.57255422095509</v>
+        <v>27.57255422095492</v>
       </c>
       <c r="R18" t="n">
-        <v>13.41111453930183</v>
+        <v>13.41111453930174</v>
       </c>
       <c r="S18" t="n">
-        <v>4.012155275073692</v>
+        <v>4.012155275073667</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8706424315921425</v>
+        <v>0.8706424315921372</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01421070345362584</v>
+        <v>0.01421070345362575</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1810894013871882</v>
+        <v>0.1810894013871871</v>
       </c>
       <c r="H19" t="n">
-        <v>1.610049405060638</v>
+        <v>1.610049405060628</v>
       </c>
       <c r="I19" t="n">
-        <v>5.445852179898353</v>
+        <v>5.445852179898319</v>
       </c>
       <c r="J19" t="n">
-        <v>12.80302067807421</v>
+        <v>12.80302067807413</v>
       </c>
       <c r="K19" t="n">
-        <v>21.03929590662059</v>
+        <v>21.03929590662046</v>
       </c>
       <c r="L19" t="n">
-        <v>26.92305518441888</v>
+        <v>26.92305518441871</v>
       </c>
       <c r="M19" t="n">
-        <v>28.38658680108442</v>
+        <v>28.38658680108424</v>
       </c>
       <c r="N19" t="n">
-        <v>27.71161721409583</v>
+        <v>27.71161721409566</v>
       </c>
       <c r="O19" t="n">
-        <v>25.5961637524364</v>
+        <v>25.59616375243624</v>
       </c>
       <c r="P19" t="n">
-        <v>21.90193996413774</v>
+        <v>21.9019399641376</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.16376796524901</v>
+        <v>15.16376796524891</v>
       </c>
       <c r="R19" t="n">
-        <v>8.142437993282115</v>
+        <v>8.142437993282066</v>
       </c>
       <c r="S19" t="n">
-        <v>3.155894385993088</v>
+        <v>3.155894385993069</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7737456241088949</v>
+        <v>0.7737456241088901</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009877603712028459</v>
+        <v>0.009877603712028398</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4037077564045126</v>
+        <v>0.4037077564045085</v>
       </c>
       <c r="H20" t="n">
-        <v>4.134472060277716</v>
+        <v>4.134472060277674</v>
       </c>
       <c r="I20" t="n">
-        <v>15.56394327878499</v>
+        <v>15.56394327878483</v>
       </c>
       <c r="J20" t="n">
-        <v>34.26419119013754</v>
+        <v>34.26419119013719</v>
       </c>
       <c r="K20" t="n">
-        <v>51.35314051874057</v>
+        <v>51.35314051874004</v>
       </c>
       <c r="L20" t="n">
-        <v>63.70811176880518</v>
+        <v>63.70811176880454</v>
       </c>
       <c r="M20" t="n">
-        <v>70.88754958176393</v>
+        <v>70.88754958176321</v>
       </c>
       <c r="N20" t="n">
-        <v>72.03458424464826</v>
+        <v>72.03458424464753</v>
       </c>
       <c r="O20" t="n">
-        <v>68.02021524190089</v>
+        <v>68.02021524190019</v>
       </c>
       <c r="P20" t="n">
-        <v>58.05368000566447</v>
+        <v>58.05368000566388</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.59589597942784</v>
+        <v>43.5958959794274</v>
       </c>
       <c r="R20" t="n">
-        <v>25.35940735324499</v>
+        <v>25.35940735324473</v>
       </c>
       <c r="S20" t="n">
-        <v>9.19949049906784</v>
+        <v>9.199490499067748</v>
       </c>
       <c r="T20" t="n">
-        <v>1.767230703660755</v>
+        <v>1.767230703660737</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03229662051236101</v>
+        <v>0.03229662051236068</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2160026924951128</v>
+        <v>0.2160026924951106</v>
       </c>
       <c r="H21" t="n">
-        <v>2.086131266992274</v>
+        <v>2.086131266992252</v>
       </c>
       <c r="I21" t="n">
-        <v>7.436934807397524</v>
+        <v>7.436934807397447</v>
       </c>
       <c r="J21" t="n">
-        <v>20.40751753963695</v>
+        <v>20.40751753963674</v>
       </c>
       <c r="K21" t="n">
-        <v>34.87969793680951</v>
+        <v>34.87969793680915</v>
       </c>
       <c r="L21" t="n">
-        <v>46.90005829811648</v>
+        <v>46.90005829811601</v>
       </c>
       <c r="M21" t="n">
-        <v>54.73015590106431</v>
+        <v>54.73015590106375</v>
       </c>
       <c r="N21" t="n">
-        <v>56.17870027310391</v>
+        <v>56.17870027310334</v>
       </c>
       <c r="O21" t="n">
-        <v>51.39253534992272</v>
+        <v>51.39253534992221</v>
       </c>
       <c r="P21" t="n">
-        <v>41.24704046426412</v>
+        <v>41.2470404642637</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.5725542209551</v>
+        <v>27.57255422095482</v>
       </c>
       <c r="R21" t="n">
-        <v>13.41111453930183</v>
+        <v>13.41111453930169</v>
       </c>
       <c r="S21" t="n">
-        <v>4.012155275073693</v>
+        <v>4.012155275073652</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8706424315921428</v>
+        <v>0.8706424315921339</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01421070345362585</v>
+        <v>0.0142107034536257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1810894013871883</v>
+        <v>0.1810894013871864</v>
       </c>
       <c r="H22" t="n">
-        <v>1.610049405060639</v>
+        <v>1.610049405060622</v>
       </c>
       <c r="I22" t="n">
-        <v>5.445852179898354</v>
+        <v>5.445852179898299</v>
       </c>
       <c r="J22" t="n">
-        <v>12.80302067807421</v>
+        <v>12.80302067807408</v>
       </c>
       <c r="K22" t="n">
-        <v>21.03929590662059</v>
+        <v>21.03929590662038</v>
       </c>
       <c r="L22" t="n">
-        <v>26.92305518441889</v>
+        <v>26.92305518441861</v>
       </c>
       <c r="M22" t="n">
-        <v>28.38658680108443</v>
+        <v>28.38658680108414</v>
       </c>
       <c r="N22" t="n">
-        <v>27.71161721409584</v>
+        <v>27.71161721409556</v>
       </c>
       <c r="O22" t="n">
-        <v>25.5961637524364</v>
+        <v>25.59616375243614</v>
       </c>
       <c r="P22" t="n">
-        <v>21.90193996413774</v>
+        <v>21.90193996413752</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.16376796524901</v>
+        <v>15.16376796524886</v>
       </c>
       <c r="R22" t="n">
-        <v>8.142437993282117</v>
+        <v>8.142437993282035</v>
       </c>
       <c r="S22" t="n">
-        <v>3.155894385993089</v>
+        <v>3.155894385993057</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7737456241088951</v>
+        <v>0.7737456241088873</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009877603712028463</v>
+        <v>0.009877603712028362</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5033111533924556</v>
+        <v>0.5033111533924546</v>
       </c>
       <c r="H26" t="n">
-        <v>5.154535349680487</v>
+        <v>5.154535349680477</v>
       </c>
       <c r="I26" t="n">
-        <v>19.40390324116266</v>
+        <v>19.40390324116262</v>
       </c>
       <c r="J26" t="n">
-        <v>42.71790500524297</v>
+        <v>42.71790500524288</v>
       </c>
       <c r="K26" t="n">
-        <v>64.02306612834562</v>
+        <v>64.02306612834549</v>
       </c>
       <c r="L26" t="n">
-        <v>79.42627483898001</v>
+        <v>79.42627483897984</v>
       </c>
       <c r="M26" t="n">
-        <v>88.37703456312308</v>
+        <v>88.3770345631229</v>
       </c>
       <c r="N26" t="n">
-        <v>89.8070673776994</v>
+        <v>89.80706737769921</v>
       </c>
       <c r="O26" t="n">
-        <v>84.80226709615316</v>
+        <v>84.80226709615299</v>
       </c>
       <c r="P26" t="n">
-        <v>72.37677299677691</v>
+        <v>72.37677299677677</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.35194231590958</v>
+        <v>54.35194231590946</v>
       </c>
       <c r="R26" t="n">
-        <v>31.61611923928887</v>
+        <v>31.6161192392888</v>
       </c>
       <c r="S26" t="n">
-        <v>11.46920290793059</v>
+        <v>11.46920290793057</v>
       </c>
       <c r="T26" t="n">
-        <v>2.203244573975475</v>
+        <v>2.203244573975471</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04026489227139644</v>
+        <v>0.04026489227139635</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2692952081571051</v>
+        <v>0.2692952081571046</v>
       </c>
       <c r="H27" t="n">
-        <v>2.600824773517305</v>
+        <v>2.6008247735173</v>
       </c>
       <c r="I27" t="n">
-        <v>9.271786772075769</v>
+        <v>9.27178677207575</v>
       </c>
       <c r="J27" t="n">
-        <v>25.44249157417632</v>
+        <v>25.44249157417627</v>
       </c>
       <c r="K27" t="n">
-        <v>43.48527052070236</v>
+        <v>43.48527052070227</v>
       </c>
       <c r="L27" t="n">
-        <v>58.47131263077846</v>
+        <v>58.47131263077834</v>
       </c>
       <c r="M27" t="n">
-        <v>68.2332639264735</v>
+        <v>68.23326392647337</v>
       </c>
       <c r="N27" t="n">
-        <v>70.03919538819375</v>
+        <v>70.0391953881936</v>
       </c>
       <c r="O27" t="n">
-        <v>64.07218051271263</v>
+        <v>64.07218051271251</v>
       </c>
       <c r="P27" t="n">
-        <v>51.42357356466685</v>
+        <v>51.42357356466675</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.37529709738767</v>
+        <v>34.37529709738759</v>
       </c>
       <c r="R27" t="n">
-        <v>16.71992529242097</v>
+        <v>16.71992529242094</v>
       </c>
       <c r="S27" t="n">
-        <v>5.002040379584821</v>
+        <v>5.002040379584812</v>
       </c>
       <c r="T27" t="n">
-        <v>1.085448667966577</v>
+        <v>1.085448667966574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01771679001033587</v>
+        <v>0.01771679001033583</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.225768056306575</v>
+        <v>0.2257680563065745</v>
       </c>
       <c r="H28" t="n">
-        <v>2.007283264253005</v>
+        <v>2.007283264253001</v>
       </c>
       <c r="I28" t="n">
-        <v>6.789461184201366</v>
+        <v>6.789461184201353</v>
       </c>
       <c r="J28" t="n">
-        <v>15.96180158087485</v>
+        <v>15.96180158087482</v>
       </c>
       <c r="K28" t="n">
-        <v>26.23014326907298</v>
+        <v>26.23014326907293</v>
       </c>
       <c r="L28" t="n">
-        <v>33.56555266216117</v>
+        <v>33.5655526621611</v>
       </c>
       <c r="M28" t="n">
-        <v>35.39016904449338</v>
+        <v>35.39016904449331</v>
       </c>
       <c r="N28" t="n">
-        <v>34.54866992553254</v>
+        <v>34.54866992553247</v>
       </c>
       <c r="O28" t="n">
-        <v>31.91128854049663</v>
+        <v>31.91128854049656</v>
       </c>
       <c r="P28" t="n">
-        <v>27.30562019184248</v>
+        <v>27.30562019184242</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.90499606036239</v>
+        <v>18.90499606036235</v>
       </c>
       <c r="R28" t="n">
-        <v>10.15135278629382</v>
+        <v>10.15135278629379</v>
       </c>
       <c r="S28" t="n">
-        <v>3.934521490360947</v>
+        <v>3.934521490360938</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9646453314917293</v>
+        <v>0.9646453314917273</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01231462125308592</v>
+        <v>0.0123146212530859</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L2" t="n">
         <v>11.46040338013756</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N3" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,13 +34866,13 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="O4" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P4" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N5" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N6" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>11.46040338013756</v>
@@ -35173,25 +35173,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>199.2745317056441</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="L8" t="n">
-        <v>23.11111834446389</v>
+        <v>118.4972331793495</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>199.2745317056441</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="O8" t="n">
-        <v>199.2745317056441</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="L9" t="n">
-        <v>199.2745317056441</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>31.85775286340139</v>
       </c>
       <c r="N9" t="n">
-        <v>199.2745317056441</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="O9" t="n">
-        <v>31.85775286340174</v>
+        <v>199.2745317056438</v>
       </c>
       <c r="P9" t="n">
-        <v>199.2745317056441</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>106.9899934859008</v>
+        <v>106.9899934859006</v>
       </c>
       <c r="K11" t="n">
-        <v>293.919172887208</v>
+        <v>293.9191728872077</v>
       </c>
       <c r="L11" t="n">
-        <v>415.1074785212762</v>
+        <v>415.1074785212757</v>
       </c>
       <c r="M11" t="n">
-        <v>468.0988286252872</v>
+        <v>468.0988286252866</v>
       </c>
       <c r="N11" t="n">
-        <v>454.1874718079976</v>
+        <v>454.187471807997</v>
       </c>
       <c r="O11" t="n">
-        <v>376.1056541033494</v>
+        <v>376.1056541033489</v>
       </c>
       <c r="P11" t="n">
-        <v>288.5151915774354</v>
+        <v>288.515191577435</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.9820108143138</v>
+        <v>138.9820108143134</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.27029181550176</v>
+        <v>81.27029181550161</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6883368864951</v>
+        <v>266.6883368864948</v>
       </c>
       <c r="L12" t="n">
-        <v>416.4170736214656</v>
+        <v>416.4170736214653</v>
       </c>
       <c r="M12" t="n">
-        <v>544.6628362144244</v>
+        <v>197.599142671934</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6086458520151</v>
+        <v>572.6086458520148</v>
       </c>
       <c r="O12" t="n">
-        <v>100.4904082560675</v>
+        <v>447.5541017985597</v>
       </c>
       <c r="P12" t="n">
-        <v>346.3944336720392</v>
+        <v>346.3944336720389</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.9378368326664</v>
+        <v>186.9378368326662</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.83235138948663</v>
+        <v>45.83235138948694</v>
       </c>
       <c r="K13" t="n">
-        <v>147.4689168024903</v>
+        <v>147.4689168024906</v>
       </c>
       <c r="L13" t="n">
-        <v>221.032364621315</v>
+        <v>221.0323646213152</v>
       </c>
       <c r="M13" t="n">
-        <v>240.0579434373161</v>
+        <v>240.0579434373163</v>
       </c>
       <c r="N13" t="n">
-        <v>239.8161411452756</v>
+        <v>239.8161411452758</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5403894473427</v>
+        <v>217.540389447343</v>
       </c>
       <c r="P13" t="n">
-        <v>177.9924658938402</v>
+        <v>177.9924658938404</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.49779694378257</v>
+        <v>69.49779694378287</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>106.9899934859008</v>
+        <v>106.9899934859006</v>
       </c>
       <c r="K14" t="n">
-        <v>293.919172887208</v>
+        <v>293.9191728872077</v>
       </c>
       <c r="L14" t="n">
-        <v>415.1074785212761</v>
+        <v>415.1074785212757</v>
       </c>
       <c r="M14" t="n">
-        <v>468.0988286252871</v>
+        <v>468.0988286252866</v>
       </c>
       <c r="N14" t="n">
-        <v>454.1874718079975</v>
+        <v>454.187471807997</v>
       </c>
       <c r="O14" t="n">
-        <v>376.1056541033493</v>
+        <v>376.1056541033489</v>
       </c>
       <c r="P14" t="n">
-        <v>288.5151915774354</v>
+        <v>288.515191577435</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.9820108143137</v>
+        <v>138.9820108143134</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.27029181550174</v>
+        <v>80.60103194505047</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>266.6883368864948</v>
       </c>
       <c r="L15" t="n">
-        <v>416.4170736214656</v>
+        <v>416.4170736214653</v>
       </c>
       <c r="M15" t="n">
-        <v>544.6628362144244</v>
+        <v>544.662836214424</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6086458520151</v>
+        <v>572.6086458520148</v>
       </c>
       <c r="O15" t="n">
-        <v>447.5541017985599</v>
+        <v>447.5541017985597</v>
       </c>
       <c r="P15" t="n">
-        <v>346.3944336720391</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.5624801766694</v>
+        <v>186.9378368326662</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>45.83235138948669</v>
       </c>
       <c r="K16" t="n">
-        <v>147.4689168024904</v>
+        <v>147.4689168024903</v>
       </c>
       <c r="L16" t="n">
-        <v>221.032364621315</v>
+        <v>221.0323646213149</v>
       </c>
       <c r="M16" t="n">
-        <v>240.0579434373161</v>
+        <v>240.057943437316</v>
       </c>
       <c r="N16" t="n">
-        <v>239.8161411452757</v>
+        <v>239.8161411452756</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5403894473428</v>
+        <v>217.5403894473427</v>
       </c>
       <c r="P16" t="n">
-        <v>177.9924658938402</v>
+        <v>177.9924658938401</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.49779694378263</v>
+        <v>69.49779694378262</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>106.9899934859008</v>
+        <v>106.9899934859006</v>
       </c>
       <c r="K17" t="n">
-        <v>293.919172887208</v>
+        <v>293.9191728872077</v>
       </c>
       <c r="L17" t="n">
-        <v>415.1074785212761</v>
+        <v>415.1074785212757</v>
       </c>
       <c r="M17" t="n">
-        <v>468.0988286252871</v>
+        <v>468.0988286252869</v>
       </c>
       <c r="N17" t="n">
-        <v>454.1874718079974</v>
+        <v>454.187471807997</v>
       </c>
       <c r="O17" t="n">
-        <v>376.1056541033493</v>
+        <v>376.1056541033489</v>
       </c>
       <c r="P17" t="n">
-        <v>288.5151915774354</v>
+        <v>288.515191577435</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.9820108143137</v>
+        <v>138.9820108143134</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.27029181550174</v>
+        <v>81.27029181550161</v>
       </c>
       <c r="K18" t="n">
-        <v>266.688336886495</v>
+        <v>266.6883368864948</v>
       </c>
       <c r="L18" t="n">
-        <v>416.4170736214656</v>
+        <v>415.7478137510142</v>
       </c>
       <c r="M18" t="n">
-        <v>544.6628362144244</v>
+        <v>544.662836214424</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6086458520151</v>
+        <v>572.6086458520148</v>
       </c>
       <c r="O18" t="n">
-        <v>446.8848419281071</v>
+        <v>447.5541017985597</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.9378368326664</v>
+        <v>186.9378368326662</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>54.98291989110889</v>
+        <v>54.98291989110876</v>
       </c>
       <c r="L19" t="n">
-        <v>128.5463677099335</v>
+        <v>128.5463677099333</v>
       </c>
       <c r="M19" t="n">
-        <v>147.5719465259347</v>
+        <v>147.5719465259345</v>
       </c>
       <c r="N19" t="n">
-        <v>147.3301442338942</v>
+        <v>147.330144233894</v>
       </c>
       <c r="O19" t="n">
-        <v>125.0543925359613</v>
+        <v>125.0543925359612</v>
       </c>
       <c r="P19" t="n">
-        <v>85.50646898245874</v>
+        <v>85.5064689824586</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>106.9899934859008</v>
+        <v>106.9899934859005</v>
       </c>
       <c r="K20" t="n">
-        <v>293.919172887208</v>
+        <v>293.9191728872075</v>
       </c>
       <c r="L20" t="n">
-        <v>415.1074785212761</v>
+        <v>415.1074785212755</v>
       </c>
       <c r="M20" t="n">
-        <v>468.0988286252871</v>
+        <v>468.0988286252864</v>
       </c>
       <c r="N20" t="n">
-        <v>454.1874718079975</v>
+        <v>454.1874718079968</v>
       </c>
       <c r="O20" t="n">
-        <v>376.1056541033493</v>
+        <v>376.1056541033486</v>
       </c>
       <c r="P20" t="n">
-        <v>288.5151915774354</v>
+        <v>288.5151915774348</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.9820108143137</v>
+        <v>138.9820108143133</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.27029181550174</v>
+        <v>81.27029181550154</v>
       </c>
       <c r="K21" t="n">
-        <v>266.6883368864951</v>
+        <v>266.6883368864947</v>
       </c>
       <c r="L21" t="n">
-        <v>416.4170736214656</v>
+        <v>69.35338007897647</v>
       </c>
       <c r="M21" t="n">
-        <v>544.6628362144244</v>
+        <v>544.6628362144238</v>
       </c>
       <c r="N21" t="n">
-        <v>412.4827891421893</v>
+        <v>572.6086458520145</v>
       </c>
       <c r="O21" t="n">
-        <v>447.5541017985599</v>
+        <v>447.5541017985594</v>
       </c>
       <c r="P21" t="n">
-        <v>346.3944336720391</v>
+        <v>346.3944336720387</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>186.9378368326662</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>54.98291989110889</v>
+        <v>54.98291989110868</v>
       </c>
       <c r="L22" t="n">
-        <v>128.5463677099335</v>
+        <v>128.5463677099333</v>
       </c>
       <c r="M22" t="n">
-        <v>147.5719465259347</v>
+        <v>147.5719465259344</v>
       </c>
       <c r="N22" t="n">
-        <v>147.3301442338942</v>
+        <v>147.3301442338939</v>
       </c>
       <c r="O22" t="n">
-        <v>125.0543925359613</v>
+        <v>125.0543925359611</v>
       </c>
       <c r="P22" t="n">
-        <v>85.50646898245874</v>
+        <v>85.50646898245853</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>86.3052658500411</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>275.2939094703879</v>
       </c>
       <c r="L24" t="n">
-        <v>266.9238715766024</v>
+        <v>185.3705418153137</v>
       </c>
       <c r="M24" t="n">
         <v>558.1659442398335</v>
@@ -36455,7 +36455,7 @@
         <v>356.5709667724418</v>
       </c>
       <c r="Q24" t="n">
-        <v>193.740579709099</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>218.6624031853925</v>
+        <v>218.6624031853924</v>
       </c>
       <c r="K26" t="n">
-        <v>409.8077943811993</v>
+        <v>409.8077943811991</v>
       </c>
       <c r="L26" t="n">
-        <v>534.0443374758372</v>
+        <v>534.044337475837</v>
       </c>
       <c r="M26" t="n">
-        <v>588.8070094910325</v>
+        <v>588.8070094910323</v>
       </c>
       <c r="N26" t="n">
-        <v>575.1786508254348</v>
+        <v>575.1786508254347</v>
       </c>
       <c r="O26" t="n">
-        <v>421.8622843061347</v>
+        <v>496.1064018419876</v>
       </c>
       <c r="P26" t="n">
-        <v>406.0569804529341</v>
+        <v>406.0569804529339</v>
       </c>
       <c r="Q26" t="n">
-        <v>252.9567530351817</v>
+        <v>178.7126354993289</v>
       </c>
       <c r="R26" t="n">
-        <v>45.10291148456993</v>
+        <v>45.10291148456984</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>77.93522795625475</v>
+        <v>86.30526585004107</v>
       </c>
       <c r="K27" t="n">
-        <v>275.2939094703879</v>
+        <v>275.2939094703878</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>185.3705418153134</v>
       </c>
       <c r="M27" t="n">
-        <v>558.1659442398335</v>
+        <v>558.1659442398334</v>
       </c>
       <c r="N27" t="n">
-        <v>586.469140967105</v>
+        <v>586.4691409671047</v>
       </c>
       <c r="O27" t="n">
-        <v>460.2337469613499</v>
+        <v>460.2337469613498</v>
       </c>
       <c r="P27" t="n">
-        <v>356.5709667724419</v>
+        <v>356.5709667724417</v>
       </c>
       <c r="Q27" t="n">
-        <v>193.740579709099</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.72383126529211</v>
+        <v>59.72383126529204</v>
       </c>
       <c r="K28" t="n">
         <v>163.3924631379475</v>
       </c>
       <c r="L28" t="n">
-        <v>238.4075610720621</v>
+        <v>238.407561072062</v>
       </c>
       <c r="M28" t="n">
-        <v>257.7942246537299</v>
+        <v>257.7942246537298</v>
       </c>
       <c r="N28" t="n">
-        <v>257.3858928297171</v>
+        <v>257.385892829717</v>
       </c>
       <c r="O28" t="n">
-        <v>234.5882132084078</v>
+        <v>234.5882132084077</v>
       </c>
       <c r="P28" t="n">
         <v>194.1288450945497</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.97172401190079</v>
+        <v>83.97172401190072</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>144.4182856495405</v>
+        <v>189.5211971341086</v>
       </c>
       <c r="K29" t="n">
         <v>409.8077943811992</v>
@@ -36853,7 +36853,7 @@
         <v>252.9567530351816</v>
       </c>
       <c r="R29" t="n">
-        <v>45.10291148456989</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.3052658500411</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>275.2939094703879</v>
@@ -36923,13 +36923,13 @@
         <v>586.4691409671049</v>
       </c>
       <c r="O30" t="n">
-        <v>460.2337469613498</v>
+        <v>110.1806469634771</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>356.5709667724418</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.953180633627</v>
+        <v>193.740579709099</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>306.589098496813</v>
       </c>
       <c r="L32" t="n">
-        <v>430.8256415914509</v>
+        <v>485.6766154444122</v>
       </c>
       <c r="M32" t="n">
         <v>485.5883136066462</v>
@@ -37084,7 +37084,7 @@
         <v>392.8877059576015</v>
       </c>
       <c r="P32" t="n">
-        <v>357.6892584215091</v>
+        <v>302.8382845685477</v>
       </c>
       <c r="Q32" t="n">
         <v>149.7380571507954</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.3052658500411</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>275.2939094703879</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>427.9883279541276</v>
@@ -37163,10 +37163,10 @@
         <v>460.2337469613498</v>
       </c>
       <c r="P33" t="n">
-        <v>113.9531806336275</v>
+        <v>356.5709667724418</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>118.9813891816145</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>154.1671969453309</v>
       </c>
       <c r="O34" t="n">
-        <v>135.4037397459655</v>
+        <v>131.3695173240215</v>
       </c>
       <c r="P34" t="n">
         <v>90.91014921016345</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.034222421944033</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>302.8382845685477</v>
       </c>
       <c r="Q35" t="n">
-        <v>149.7380571507964</v>
+        <v>149.7380571507954</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>427.9883279541276</v>
       </c>
       <c r="M36" t="n">
-        <v>121.8075783919205</v>
+        <v>558.1659442398335</v>
       </c>
       <c r="N36" t="n">
-        <v>586.4691409671049</v>
+        <v>150.1107751191918</v>
       </c>
       <c r="O36" t="n">
         <v>460.2337469613498</v>
@@ -37625,7 +37625,7 @@
         <v>275.2939094703879</v>
       </c>
       <c r="L39" t="n">
-        <v>427.9883279541276</v>
+        <v>185.3705418153137</v>
       </c>
       <c r="M39" t="n">
         <v>558.1659442398335</v>
@@ -37634,13 +37634,13 @@
         <v>586.4691409671049</v>
       </c>
       <c r="O39" t="n">
-        <v>23.87538111343686</v>
+        <v>460.2337469613498</v>
       </c>
       <c r="P39" t="n">
         <v>356.5709667724418</v>
       </c>
       <c r="Q39" t="n">
-        <v>193.740579709099</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>86.3052658500411</v>
       </c>
       <c r="K42" t="n">
-        <v>195.5065103949167</v>
+        <v>275.2939094703879</v>
       </c>
       <c r="L42" t="n">
         <v>427.9883279541276</v>
@@ -37868,13 +37868,13 @@
         <v>558.1659442398335</v>
       </c>
       <c r="N42" t="n">
-        <v>586.4691409671049</v>
+        <v>150.1107751191918</v>
       </c>
       <c r="O42" t="n">
         <v>460.2337469613498</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>356.5709667724418</v>
       </c>
       <c r="Q42" t="n">
         <v>193.740579709099</v>
@@ -38102,10 +38102,10 @@
         <v>427.9883279541276</v>
       </c>
       <c r="M45" t="n">
-        <v>558.1659442398335</v>
+        <v>315.5481581010196</v>
       </c>
       <c r="N45" t="n">
-        <v>150.1107751191918</v>
+        <v>586.4691409671049</v>
       </c>
       <c r="O45" t="n">
         <v>460.2337469613498</v>
@@ -38114,7 +38114,7 @@
         <v>356.5709667724418</v>
       </c>
       <c r="Q45" t="n">
-        <v>193.740579709099</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
